--- a/GameDesign/Templates_Organisation_G4.xlsx
+++ b/GameDesign/Templates_Organisation_G4.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Design" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Général!$A$1:$I$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Général!$A$1:$I$204</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="474">
   <si>
     <t>Feature</t>
   </si>
@@ -1335,6 +1335,117 @@
   </si>
   <si>
     <t>Gestion de la fin de partie rapide (surrender)</t>
+  </si>
+  <si>
+    <t>Card Listing Menu</t>
+  </si>
+  <si>
+    <t>button_switch_left</t>
+  </si>
+  <si>
+    <t>Bouton changement carte gauche</t>
+  </si>
+  <si>
+    <t>button_switch_right</t>
+  </si>
+  <si>
+    <t>Bouton changement carte droite</t>
+  </si>
+  <si>
+    <t>wallpaper_menu</t>
+  </si>
+  <si>
+    <t>Fond du menu du listing des cartes</t>
+  </si>
+  <si>
+    <t>button_card_add</t>
+  </si>
+  <si>
+    <t>Code pour le bouton droite</t>
+  </si>
+  <si>
+    <t>Code script pour le bouton gauche</t>
+  </si>
+  <si>
+    <t>Gestion de l'ajout des cartes dans le deck</t>
+  </si>
+  <si>
+    <t>button_card_remove</t>
+  </si>
+  <si>
+    <t>Gestion du retrait de cartes dans le deck</t>
+  </si>
+  <si>
+    <t>button_unit</t>
+  </si>
+  <si>
+    <t>Gestion de l'affichage des unités</t>
+  </si>
+  <si>
+    <t>button_mov</t>
+  </si>
+  <si>
+    <t>Gestion de l'affichage des mouvements</t>
+  </si>
+  <si>
+    <t>button_land</t>
+  </si>
+  <si>
+    <t>button_return</t>
+  </si>
+  <si>
+    <t>Gestion retour menu (deck complet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gestion de l'affichage des terrains (cartes)</t>
+  </si>
+  <si>
+    <t>sound_button_add&amp;Rem</t>
+  </si>
+  <si>
+    <t>Bruit de l'ajout et retrait de cartes</t>
+  </si>
+  <si>
+    <t>sound_button_switch</t>
+  </si>
+  <si>
+    <t>Bruit pour le changement des cartes (switch)</t>
+  </si>
+  <si>
+    <t>sound_button_return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruit pour le retour au menu </t>
+  </si>
+  <si>
+    <t>Tutorial image</t>
+  </si>
+  <si>
+    <t>wallpaper_tuto</t>
+  </si>
+  <si>
+    <t>Image explicatif du jeu</t>
+  </si>
+  <si>
+    <t>bouton_return</t>
+  </si>
+  <si>
+    <t>Gestion retour menu</t>
+  </si>
+  <si>
+    <t>Augmenter/diminuer le niveau du son (Thème)</t>
+  </si>
+  <si>
+    <t>Bouton Retour au menu</t>
+  </si>
+  <si>
+    <t>code_musik</t>
+  </si>
+  <si>
+    <t>code_son</t>
+  </si>
+  <si>
+    <t>code_controls</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1708,28 +1819,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thick">
@@ -1800,6 +1889,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1807,7 +1944,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1845,9 +1982,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1855,9 +1990,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1890,20 +2022,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1911,12 +2034,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1959,12 +2082,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1978,12 +2095,29 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60 % - Accent5" xfId="3" builtinId="48"/>
@@ -2313,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,7 +2466,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -2372,43 +2506,43 @@
       <c r="H2" s="17">
         <v>0</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="97" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="95" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="95" t="s">
         <v>332</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="105"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="17">
         <v>0</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="96" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="95" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2417,38 +2551,38 @@
       <c r="E4" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="105"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="17">
         <v>0</v>
       </c>
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="54" t="s">
+      <c r="B5" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="39">
-        <v>0</v>
-      </c>
-      <c r="I5" s="56"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2461,15 +2595,15 @@
       <c r="E6" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="39">
-        <v>0</v>
-      </c>
-      <c r="I6" s="56"/>
+      <c r="H6" s="36">
+        <v>0</v>
+      </c>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2482,15 +2616,15 @@
       <c r="E7" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="39">
-        <v>0</v>
-      </c>
-      <c r="I7" s="56"/>
+      <c r="H7" s="36">
+        <v>0</v>
+      </c>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2507,16 +2641,16 @@
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="39">
-        <v>0</v>
-      </c>
-      <c r="I8" s="95"/>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="87"/>
     </row>
     <row r="9" spans="1:9" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2528,20 +2662,20 @@
       <c r="E9" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="38">
-        <v>0</v>
-      </c>
-      <c r="I9" s="108" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="98" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2554,17 +2688,19 @@
         <v>357</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="42">
-        <v>0</v>
-      </c>
-      <c r="I10" s="109" t="s">
+      <c r="G10" s="43"/>
+      <c r="H10" s="39">
+        <v>0</v>
+      </c>
+      <c r="I10" s="99" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2577,19 +2713,19 @@
         <v>343</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="42">
-        <v>0</v>
-      </c>
-      <c r="I11" s="109" t="s">
+      <c r="G11" s="43"/>
+      <c r="H11" s="39">
+        <v>0</v>
+      </c>
+      <c r="I11" s="99" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2603,16 +2739,18 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="42">
-        <v>0</v>
-      </c>
-      <c r="I12" s="109" t="s">
+      <c r="H12" s="39">
+        <v>0</v>
+      </c>
+      <c r="I12" s="99" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2626,16 +2764,18 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="42">
-        <v>0</v>
-      </c>
-      <c r="I13" s="109" t="s">
+      <c r="H13" s="39">
+        <v>0</v>
+      </c>
+      <c r="I13" s="99" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2649,15 +2789,15 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="42">
-        <v>0</v>
-      </c>
-      <c r="I14" s="109" t="s">
+      <c r="H14" s="39">
+        <v>0</v>
+      </c>
+      <c r="I14" s="99" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="66" t="s">
         <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2674,67 +2814,67 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="42">
-        <v>0</v>
-      </c>
-      <c r="I15" s="109" t="s">
+      <c r="H15" s="39">
+        <v>0</v>
+      </c>
+      <c r="I15" s="99" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="45" t="s">
         <v>162</v>
       </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="42">
-        <v>0</v>
-      </c>
-      <c r="I16" s="97"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="39">
+        <v>0</v>
+      </c>
+      <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="45" t="s">
         <v>345</v>
       </c>
       <c r="F17" s="17"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="42">
-        <v>0</v>
-      </c>
-      <c r="I17" s="97"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="39">
+        <v>0</v>
+      </c>
+      <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="100" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2745,10 +2885,10 @@
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="42">
-        <v>0</v>
-      </c>
-      <c r="I18" s="109" t="s">
+      <c r="H18" s="39">
+        <v>0</v>
+      </c>
+      <c r="I18" s="99" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2762,42 +2902,46 @@
       <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="38">
-        <v>0</v>
-      </c>
-      <c r="I19" s="96"/>
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+      <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="43" t="s">
         <v>363</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="42">
-        <v>0</v>
-      </c>
-      <c r="I20" s="97"/>
+      <c r="H20" s="39">
+        <v>0</v>
+      </c>
+      <c r="I20" s="89"/>
     </row>
     <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2812,13 +2956,15 @@
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="42">
-        <v>0</v>
-      </c>
-      <c r="I21" s="97"/>
+      <c r="H21" s="39">
+        <v>0</v>
+      </c>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
@@ -2833,14 +2979,14 @@
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="42">
-        <v>0</v>
-      </c>
-      <c r="I22" s="97"/>
+      <c r="H22" s="39">
+        <v>0</v>
+      </c>
+      <c r="I22" s="89"/>
     </row>
     <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
-        <v>134</v>
+      <c r="A23" s="66" t="s">
+        <v>344</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
@@ -2859,10 +3005,12 @@
       <c r="H23" s="17">
         <v>0</v>
       </c>
-      <c r="I23" s="94"/>
+      <c r="I23" s="86"/>
     </row>
     <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
+      <c r="A24" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -2880,10 +3028,12 @@
       <c r="H24" s="17">
         <v>0</v>
       </c>
-      <c r="I24" s="94"/>
+      <c r="I24" s="86"/>
     </row>
     <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
+      <c r="A25" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
@@ -2901,10 +3051,12 @@
       <c r="H25" s="17">
         <v>0</v>
       </c>
-      <c r="I25" s="94"/>
+      <c r="I25" s="86"/>
     </row>
     <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
+      <c r="A26" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2922,10 +3074,12 @@
       <c r="H26" s="17">
         <v>0</v>
       </c>
-      <c r="I26" s="94"/>
+      <c r="I26" s="86"/>
     </row>
     <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
+      <c r="A27" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
@@ -2943,10 +3097,12 @@
       <c r="H27" s="17">
         <v>0</v>
       </c>
-      <c r="I27" s="94"/>
+      <c r="I27" s="86"/>
     </row>
     <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
+      <c r="A28" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
@@ -2964,10 +3120,12 @@
       <c r="H28" s="17">
         <v>0</v>
       </c>
-      <c r="I28" s="94"/>
+      <c r="I28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
+      <c r="A29" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
@@ -2985,10 +3143,12 @@
       <c r="H29" s="17">
         <v>0</v>
       </c>
-      <c r="I29" s="94"/>
+      <c r="I29" s="86"/>
     </row>
     <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -3006,10 +3166,12 @@
       <c r="H30" s="17">
         <v>0</v>
       </c>
-      <c r="I30" s="94"/>
+      <c r="I30" s="86"/>
     </row>
     <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
+      <c r="A31" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3027,10 +3189,12 @@
       <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="94"/>
+      <c r="I31" s="86"/>
     </row>
     <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
+      <c r="A32" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -3048,10 +3212,12 @@
       <c r="H32" s="17">
         <v>0</v>
       </c>
-      <c r="I32" s="94"/>
+      <c r="I32" s="86"/>
     </row>
     <row r="33" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
+      <c r="A33" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -3069,10 +3235,12 @@
       <c r="H33" s="17">
         <v>0</v>
       </c>
-      <c r="I33" s="94"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
+      <c r="A34" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
@@ -3090,12 +3258,14 @@
       <c r="H34" s="17">
         <v>0</v>
       </c>
-      <c r="I34" s="109" t="s">
+      <c r="I34" s="99" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
+      <c r="A35" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3113,227 +3283,247 @@
       <c r="H35" s="17">
         <v>0</v>
       </c>
-      <c r="I35" s="109" t="s">
+      <c r="I35" s="99" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="54" t="s">
+      <c r="A36" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="51" t="s">
         <v>396</v>
       </c>
       <c r="F36" s="18"/>
-      <c r="G36" s="48"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="17">
         <v>0</v>
       </c>
-      <c r="I36" s="97"/>
+      <c r="I36" s="89"/>
     </row>
     <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="54" t="s">
+      <c r="A37" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="51" t="s">
         <v>395</v>
       </c>
       <c r="F37" s="18"/>
-      <c r="G37" s="48"/>
+      <c r="G37" s="45"/>
       <c r="H37" s="17">
         <v>0</v>
       </c>
-      <c r="I37" s="97"/>
+      <c r="I37" s="89"/>
     </row>
     <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="54" t="s">
+      <c r="A38" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="51" t="s">
         <v>402</v>
       </c>
       <c r="F38" s="18"/>
-      <c r="G38" s="48"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="17">
         <v>0</v>
       </c>
-      <c r="I38" s="97"/>
+      <c r="I38" s="89"/>
     </row>
     <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="54" t="s">
+      <c r="A39" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="51" t="s">
         <v>404</v>
       </c>
       <c r="F39" s="18"/>
-      <c r="G39" s="48"/>
+      <c r="G39" s="45"/>
       <c r="H39" s="17">
         <v>0</v>
       </c>
-      <c r="I39" s="97"/>
+      <c r="I39" s="89"/>
     </row>
     <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="54" t="s">
+      <c r="A40" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="51" t="s">
         <v>405</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="51" t="s">
         <v>406</v>
       </c>
       <c r="F40" s="18"/>
-      <c r="G40" s="48"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="17">
         <v>0</v>
       </c>
-      <c r="I40" s="97"/>
+      <c r="I40" s="89"/>
     </row>
     <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="54" t="s">
+      <c r="A41" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="51" t="s">
         <v>408</v>
       </c>
       <c r="F41" s="18"/>
-      <c r="G41" s="48"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="17">
         <v>0</v>
       </c>
-      <c r="I41" s="97"/>
+      <c r="I41" s="89"/>
     </row>
     <row r="42" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="54" t="s">
+      <c r="A42" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="51" t="s">
         <v>409</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="51" t="s">
         <v>410</v>
       </c>
       <c r="F42" s="18"/>
-      <c r="G42" s="48"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="17">
         <v>0</v>
       </c>
-      <c r="I42" s="97"/>
+      <c r="I42" s="89"/>
     </row>
     <row r="43" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="54" t="s">
+      <c r="A43" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="51" t="s">
         <v>413</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="F43" s="113">
+      <c r="F43" s="103">
         <v>1</v>
       </c>
-      <c r="G43" s="48"/>
+      <c r="G43" s="45"/>
       <c r="H43" s="17">
         <v>0</v>
       </c>
-      <c r="I43" s="97"/>
+      <c r="I43" s="89"/>
     </row>
     <row r="44" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="73"/>
-      <c r="B44" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="54" t="s">
+      <c r="A44" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="51" t="s">
         <v>436</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="48"/>
+      <c r="G44" s="45"/>
       <c r="H44" s="17">
         <v>0</v>
       </c>
-      <c r="I44" s="97"/>
+      <c r="I44" s="89"/>
     </row>
     <row r="45" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="B45" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="54" t="s">
+      <c r="A45" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="51" t="s">
         <v>411</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="51" t="s">
         <v>412</v>
       </c>
       <c r="F45" s="18"/>
-      <c r="G45" s="48"/>
+      <c r="G45" s="45"/>
       <c r="H45" s="17">
         <v>0</v>
       </c>
-      <c r="I45" s="97"/>
+      <c r="I45" s="89"/>
     </row>
     <row r="46" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
-      <c r="B46" s="69" t="s">
+      <c r="A46" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B46" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -3350,11 +3540,13 @@
       <c r="H46" s="17">
         <v>0</v>
       </c>
-      <c r="I46" s="97"/>
+      <c r="I46" s="89"/>
     </row>
     <row r="47" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
-      <c r="B47" s="69" t="s">
+      <c r="A47" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -3371,11 +3563,13 @@
       <c r="H47" s="17">
         <v>0</v>
       </c>
-      <c r="I47" s="97"/>
+      <c r="I47" s="89"/>
     </row>
     <row r="48" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="69" t="s">
+      <c r="A48" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B48" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -3392,13 +3586,13 @@
       <c r="H48" s="17">
         <v>0</v>
       </c>
-      <c r="I48" s="97"/>
+      <c r="I48" s="89"/>
     </row>
     <row r="49" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" s="69" t="s">
+      <c r="A49" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -3410,16 +3604,18 @@
       <c r="E49" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="F49" s="16"/>
+      <c r="F49" s="18"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="17">
-        <v>0</v>
-      </c>
-      <c r="I49" s="97"/>
+      <c r="H49" s="38">
+        <v>0</v>
+      </c>
+      <c r="I49" s="87"/>
     </row>
     <row r="50" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
-      <c r="B50" s="111" t="s">
+      <c r="A50" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" s="101" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3431,121 +3627,131 @@
       <c r="E50" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="F50" s="112"/>
+      <c r="F50" s="18"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="39">
-        <v>0</v>
-      </c>
-      <c r="I50" s="95"/>
+      <c r="H50" s="17">
+        <v>0</v>
+      </c>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="111" t="s">
+      <c r="A51" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" s="101" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="111" t="s">
+      <c r="D51" s="101" t="s">
         <v>422</v>
       </c>
-      <c r="E51" s="115" t="s">
+      <c r="E51" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="F51" s="112"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="39">
-        <v>0</v>
-      </c>
-      <c r="I51" s="95"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="17">
+        <v>0</v>
+      </c>
+      <c r="I51" s="86"/>
     </row>
     <row r="52" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="111" t="s">
+      <c r="A52" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B52" s="101" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="111" t="s">
+      <c r="D52" s="101" t="s">
         <v>423</v>
       </c>
-      <c r="E52" s="115" t="s">
+      <c r="E52" s="105" t="s">
         <v>429</v>
       </c>
-      <c r="F52" s="112"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="39">
-        <v>0</v>
-      </c>
-      <c r="I52" s="95"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="17">
+        <v>0</v>
+      </c>
+      <c r="I52" s="86"/>
     </row>
     <row r="53" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="111" t="s">
+      <c r="A53" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B53" s="101" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="111" t="s">
+      <c r="D53" s="101" t="s">
         <v>424</v>
       </c>
-      <c r="E53" s="115" t="s">
+      <c r="E53" s="105" t="s">
         <v>430</v>
       </c>
-      <c r="F53" s="112"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="39">
-        <v>0</v>
-      </c>
-      <c r="I53" s="95"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="17">
+        <v>0</v>
+      </c>
+      <c r="I53" s="86"/>
     </row>
     <row r="54" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
-      <c r="B54" s="111" t="s">
+      <c r="A54" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B54" s="101" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="111" t="s">
+      <c r="D54" s="101" t="s">
         <v>425</v>
       </c>
-      <c r="E54" s="115" t="s">
+      <c r="E54" s="105" t="s">
         <v>431</v>
       </c>
-      <c r="F54" s="112"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="39">
-        <v>0</v>
-      </c>
-      <c r="I54" s="95"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="17">
+        <v>0</v>
+      </c>
+      <c r="I54" s="86"/>
     </row>
     <row r="55" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
-      <c r="B55" s="111" t="s">
+      <c r="A55" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B55" s="101" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="111" t="s">
+      <c r="D55" s="101" t="s">
         <v>426</v>
       </c>
-      <c r="E55" s="115" t="s">
+      <c r="E55" s="105" t="s">
         <v>432</v>
       </c>
-      <c r="F55" s="112"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="39">
-        <v>0</v>
-      </c>
-      <c r="I55" s="95"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="86"/>
     </row>
     <row r="56" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
-      <c r="B56" s="111" t="s">
+      <c r="A56" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B56" s="101" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -3557,3031 +3763,521 @@
       <c r="E56" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="F56" s="112"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="39">
-        <v>0</v>
-      </c>
-      <c r="I56" s="95"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="86"/>
     </row>
     <row r="57" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="110" t="s">
+      <c r="A57" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="B57" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="110" t="s">
+      <c r="C57" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="100" t="s">
         <v>392</v>
       </c>
-      <c r="E57" s="110" t="s">
+      <c r="E57" s="100" t="s">
         <v>390</v>
       </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="40">
-        <v>0</v>
-      </c>
-      <c r="I57" s="98"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="90"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="16">
-        <v>40</v>
-      </c>
-      <c r="I58" s="99"/>
+        <v>437</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="111" t="s">
+        <v>438</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F58" s="110"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="88"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>84</v>
+      <c r="A59" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>441</v>
       </c>
       <c r="F59" s="16"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="16">
-        <v>40</v>
-      </c>
-      <c r="I59" s="99"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="91"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>85</v>
+      <c r="A60" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="F60" s="16"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="16">
-        <v>40</v>
-      </c>
-      <c r="I60" s="99"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="91"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="B61" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="48" t="s">
+      <c r="A61" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>171</v>
+      <c r="D61" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>446</v>
       </c>
       <c r="F61" s="18"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="100"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="92"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="48" t="s">
+      <c r="A62" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" s="49" t="s">
-        <v>175</v>
+      <c r="D62" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="E62" s="46" t="s">
+        <v>445</v>
       </c>
       <c r="F62" s="18"/>
-      <c r="G62" s="48"/>
+      <c r="G62" s="45"/>
       <c r="H62" s="18"/>
-      <c r="I62" s="100"/>
+      <c r="I62" s="92"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="48" t="s">
+      <c r="A63" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="E63" s="49" t="s">
-        <v>176</v>
+      <c r="D63" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="E63" s="46" t="s">
+        <v>456</v>
       </c>
       <c r="F63" s="18"/>
-      <c r="G63" s="48"/>
+      <c r="G63" s="45"/>
       <c r="H63" s="18"/>
-      <c r="I63" s="100"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="50" t="s">
+      <c r="I63" s="92"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="E64" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="101"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="48" t="s">
+      <c r="D64" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="92"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="E65" s="49" t="s">
-        <v>181</v>
+      <c r="D65" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>449</v>
       </c>
       <c r="F65" s="18"/>
-      <c r="G65" s="48"/>
+      <c r="G65" s="45"/>
       <c r="H65" s="18"/>
-      <c r="I65" s="100"/>
+      <c r="I65" s="92"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="48" t="s">
+      <c r="A66" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="E66" s="49" t="s">
-        <v>146</v>
+      <c r="D66" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="E66" s="46" t="s">
+        <v>451</v>
       </c>
       <c r="F66" s="18"/>
-      <c r="G66" s="48"/>
+      <c r="G66" s="45"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="100"/>
+      <c r="I66" s="92"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="48" t="s">
+      <c r="A67" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67" s="49" t="s">
-        <v>145</v>
+      <c r="D67" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>453</v>
       </c>
       <c r="F67" s="18"/>
-      <c r="G67" s="48"/>
+      <c r="G67" s="45"/>
       <c r="H67" s="18"/>
-      <c r="I67" s="100"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="50" t="s">
+      <c r="I67" s="92"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B68" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="101"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="D68" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="E68" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="92"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="92"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F70" s="18"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="92"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F71" s="18"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="92"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="108" t="s">
+        <v>437</v>
+      </c>
+      <c r="B72" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="104" t="s">
+        <v>391</v>
+      </c>
+      <c r="E72" s="104" t="s">
+        <v>389</v>
+      </c>
+      <c r="F72" s="19"/>
+      <c r="G72" s="100"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="93"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="111" t="s">
+        <v>465</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="92"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="92"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="108" t="s">
+        <v>464</v>
+      </c>
+      <c r="B75" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="100" t="s">
+        <v>462</v>
+      </c>
+      <c r="E75" s="100" t="s">
+        <v>463</v>
+      </c>
+      <c r="F75" s="114"/>
+      <c r="G75" s="113"/>
+      <c r="H75" s="115"/>
+      <c r="I75" s="116"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="B69" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="48" t="s">
+      <c r="B76" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F76" s="18"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="92"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="100"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="73" t="s">
+      <c r="D77" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="92"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="B70" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="54" t="s">
+      <c r="B78" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="E70" s="54" t="s">
+      <c r="D78" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="E78" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="99"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="73" t="s">
+      <c r="F78" s="16"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="91"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="B71" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="46" t="s">
+      <c r="B79" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="E71" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="102"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="73" t="s">
+      <c r="D79" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" s="61"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="94"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="B72" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="67" t="s">
+      <c r="B80" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="E72" s="67" t="s">
-        <v>320</v>
-      </c>
-      <c r="F72" s="64"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="102"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="74" t="s">
-        <v>311</v>
-      </c>
-      <c r="B73" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="E73" s="50" t="s">
+      <c r="D80" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="E80" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="F73" s="19"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="101"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="B74" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="E74" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="103"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="B75" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="E75" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="99"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="B76" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C76" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D76" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="E76" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="99"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="74" t="s">
-        <v>318</v>
-      </c>
-      <c r="B77" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="E77" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="F77" s="61"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="104"/>
-    </row>
-    <row r="78" spans="1:9" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="1"/>
-      <c r="H79">
-        <v>40</v>
-      </c>
-      <c r="I79" s="99"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="99"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="99"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="99"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="99"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="99"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="99"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B86" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D86" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="E86" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="99"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B87" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C87" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D87" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="E87" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="99"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C88" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D88" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="99"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B89" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="E89" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="99"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D90" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="E90" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="99"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D91" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="E91" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="99"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B92" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C92" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="E92" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="16"/>
-      <c r="G92" s="54"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="99"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="16">
-        <v>30</v>
-      </c>
-      <c r="I93" s="99"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F94" s="19"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="101"/>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="D95" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="E95" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="F95" s="53"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="103"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="B96" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="F96" s="18"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="100"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="B97" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C97" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="D97" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="E97" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="F97" s="61"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="104"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F98" s="18"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="18">
-        <v>100</v>
-      </c>
-      <c r="I98" s="100"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="F99" s="16"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="99"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E100" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="F100" s="18"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="100"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C101" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="E101" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="99"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C102" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="E102" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="F102" s="16"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="99"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="20">
-        <v>100</v>
-      </c>
-      <c r="I103" s="101"/>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B104" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F104" s="18"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="99"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F105" s="16"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="99"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B106" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F106" s="16"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="16">
-        <v>60</v>
-      </c>
-      <c r="I106" s="99"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="99"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="99"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="99"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="16">
-        <v>50</v>
-      </c>
-      <c r="I110" s="99"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="99"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F112" s="16"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="16">
-        <v>60</v>
-      </c>
-      <c r="I112" s="99"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="99"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="99"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B115" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C115" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="E115" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="F115" s="16"/>
-      <c r="G115" s="54"/>
-      <c r="H115" s="16">
-        <v>70</v>
-      </c>
-      <c r="I115" s="99"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B116" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C116" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="E116" s="60" t="s">
-        <v>308</v>
-      </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="99"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B117" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C117" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="E117" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="54"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="99"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B118" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C118" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="E118" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="F118" s="16"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="99"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B119" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C119" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="E119" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="F119" s="16"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="99"/>
-    </row>
-    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B120" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C120" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="E120" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="F120" s="19"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="101"/>
-    </row>
-    <row r="121" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E121" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F121" s="18"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="18">
-        <v>80</v>
-      </c>
-      <c r="I121" s="100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E122" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F122" s="18"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="18">
-        <v>80</v>
-      </c>
-      <c r="I122" s="100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B123" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E123" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F123" s="18"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="18">
-        <v>80</v>
-      </c>
-      <c r="I123" s="100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F124" s="16"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="99"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B125" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C125" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="E125" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="F125" s="18"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="100"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C126" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F126" s="18"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="100"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B127" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C127" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D127" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E127" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="F127" s="18"/>
-      <c r="G127" s="48"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="100"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B128" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C128" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D128" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E128" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="F128" s="18"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="100"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B129" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C129" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="E129" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="F129" s="18"/>
-      <c r="G129" s="48"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="100"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E130" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F130" s="18"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="100"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C131" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D131" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="E131" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="F131" s="18"/>
-      <c r="G131" s="48"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="100"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="F132" s="18"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="100"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E133" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="F133" s="18"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="100"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="F134" s="18"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="100"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E135" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F135" s="18"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="100"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="F136" s="18"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="100"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B137" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C137" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D137" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="E137" s="49" t="s">
-        <v>305</v>
-      </c>
-      <c r="F137" s="18"/>
-      <c r="G137" s="48"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="100"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F138" s="16"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="99"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F139" s="16"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="99"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F140" s="16"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="99"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F141" s="16"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="99"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F142" s="16"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="99"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B143" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C143" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D143" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="E143" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="F143" s="16"/>
-      <c r="G143" s="54"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="99"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B144" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C144" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D144" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="E144" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="F144" s="16"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="99"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B145" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C145" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D145" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="E145" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="F145" s="16"/>
-      <c r="G145" s="54"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="99"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F146" s="16"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="99"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E147" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F147" s="16"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="99"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E148" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F148" s="16"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="99"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E149" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F149" s="16"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="99"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B150" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C150" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D150" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="E150" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="F150" s="16"/>
-      <c r="G150" s="54"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="99"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B151" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C151" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D151" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="E151" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="F151" s="16"/>
-      <c r="G151" s="54"/>
-      <c r="H151" s="16"/>
-      <c r="I151" s="99"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B152" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C152" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D152" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="E152" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="F152" s="16"/>
-      <c r="G152" s="54"/>
-      <c r="H152" s="16"/>
-      <c r="I152" s="99"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F153" s="16"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="16"/>
-      <c r="I153" s="99"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E154" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F154" s="16"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="16"/>
-      <c r="I154" s="99"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E155" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F155" s="16"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="16"/>
-      <c r="I155" s="99"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E156" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G156" s="2"/>
-      <c r="H156" s="16"/>
-      <c r="I156" s="99"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E157" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F157" s="17"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="16"/>
-      <c r="I157" s="99"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B158" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C158" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D158" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="E158" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="F158" s="17"/>
-      <c r="G158" s="54"/>
-      <c r="H158" s="16"/>
-      <c r="I158" s="99"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B159" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C159" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D159" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="E159" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="F159" s="17"/>
-      <c r="G159" s="54"/>
-      <c r="H159" s="16"/>
-      <c r="I159" s="99"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B160" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C160" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D160" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="E160" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="F160" s="17"/>
-      <c r="G160" s="54"/>
-      <c r="H160" s="16"/>
-      <c r="I160" s="99"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F161" s="16"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="16"/>
-      <c r="I161" s="99"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E162" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F162" s="16"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="16"/>
-      <c r="I162" s="99"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B163" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C163" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D163" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="E163" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="F163" s="16"/>
-      <c r="G163" s="54"/>
-      <c r="H163" s="16"/>
-      <c r="I163" s="99"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E164" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F164" s="16"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="16"/>
-      <c r="I164" s="99"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E165" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F165" s="16"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="16"/>
-      <c r="I165" s="99"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B166" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C166" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D166" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="E166" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="F166" s="16"/>
-      <c r="G166" s="54"/>
-      <c r="H166" s="16"/>
-      <c r="I166" s="99"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E167" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="F167" s="16"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="16"/>
-      <c r="I167" s="99"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B168" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C168" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D168" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="E168" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="F168" s="16"/>
-      <c r="G168" s="54"/>
-      <c r="H168" s="16"/>
-      <c r="I168" s="99"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E169" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F169" s="16"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="16"/>
-      <c r="I169" s="99"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E170" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="F170" s="16"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="16"/>
-      <c r="I170" s="99"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B171" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C171" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D171" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="E171" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="F171" s="16"/>
-      <c r="G171" s="54"/>
-      <c r="H171" s="16"/>
-      <c r="I171" s="99"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E172" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="F172" s="16"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="16"/>
-      <c r="I172" s="99"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="F173" s="16"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="16"/>
-      <c r="I173" s="99"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B174" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C174" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D174" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="E174" s="60" t="s">
-        <v>279</v>
-      </c>
-      <c r="F174" s="16"/>
-      <c r="G174" s="54"/>
-      <c r="H174" s="16"/>
-      <c r="I174" s="99"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E175" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F175" s="16"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="16"/>
-      <c r="I175" s="99"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E176" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="F176" s="16"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="16"/>
-      <c r="I176" s="99"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B177" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C177" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D177" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="E177" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="F177" s="16"/>
-      <c r="G177" s="54"/>
-      <c r="H177" s="16"/>
-      <c r="I177" s="99"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="F178" s="16"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="99"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B179" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C179" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D179" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="E179" s="60" t="s">
-        <v>287</v>
-      </c>
-      <c r="F179" s="16"/>
-      <c r="G179" s="54"/>
-      <c r="H179" s="16"/>
-      <c r="I179" s="99"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E180" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F180" s="16"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="16"/>
-      <c r="I180" s="99"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B181" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C181" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D181" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="E181" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="F181" s="16"/>
-      <c r="G181" s="54"/>
-      <c r="H181" s="16">
-        <v>40</v>
-      </c>
-      <c r="I181" s="99"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E182" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F182" s="16"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="16"/>
-      <c r="I182" s="99"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B183" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C183" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D183" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="E183" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="F183" s="16"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="16"/>
-      <c r="I183" s="99"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E184" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="F184" s="16"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="16"/>
-      <c r="I184" s="99"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E185" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="F185" s="16"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="16"/>
-      <c r="I185" s="99"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="F186" s="16"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="16"/>
-      <c r="I186" s="99"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B187" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C187" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D187" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="E187" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="F187" s="16"/>
-      <c r="G187" s="54"/>
-      <c r="H187" s="16"/>
-      <c r="I187" s="99"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E188" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F188" s="16"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="16">
-        <v>100</v>
-      </c>
-      <c r="I188" s="99"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B189" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C189" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D189" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="E189" s="60" t="s">
-        <v>251</v>
-      </c>
-      <c r="F189" s="16"/>
-      <c r="G189" s="54"/>
-      <c r="H189" s="16"/>
-      <c r="I189" s="99"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F190" s="16"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="16"/>
-      <c r="I190" s="99"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B191" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C191" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D191" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="E191" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="F191" s="16"/>
-      <c r="G191" s="54"/>
-      <c r="H191" s="16"/>
-      <c r="I191" s="99"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F192" s="16"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="16">
-        <v>100</v>
-      </c>
-      <c r="I192" s="99"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E193" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F193" s="16"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="16"/>
-      <c r="I193" s="99"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E194" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F194" s="16"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="16"/>
-      <c r="I194" s="99"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B195" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C195" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D195" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="E195" s="60" t="s">
-        <v>307</v>
-      </c>
-      <c r="F195" s="16"/>
-      <c r="G195" s="54"/>
-      <c r="H195" s="16"/>
-      <c r="I195" s="99"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E196" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F196" s="16"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="16"/>
-      <c r="I196" s="99"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E197" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F197" s="16"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="16"/>
-      <c r="I197" s="99"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="34"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F205" s="34"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="93"/>
+    </row>
+    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F212" s="32"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="iconSet" priority="12">
+  <conditionalFormatting sqref="H110">
+    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -6589,8 +4285,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124:H125">
-    <cfRule type="iconSet" priority="10">
+  <conditionalFormatting sqref="H131:H132">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -6598,8 +4294,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="iconSet" priority="9">
+  <conditionalFormatting sqref="H133:H204 H87:H122 H128:H130">
+    <cfRule type="iconSet" priority="22">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -6607,8 +4303,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="iconSet" priority="8">
+  <conditionalFormatting sqref="H123:H127">
+    <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -6616,16 +4312,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126:H197 H80:H115 H121:H123">
-    <cfRule type="iconSet" priority="21">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H116:H120">
+  <conditionalFormatting sqref="H2">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -6634,8 +4321,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60:H77">
-    <cfRule type="iconSet" priority="22">
+  <conditionalFormatting sqref="H60:H84">
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -6643,17 +4330,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H197">
-    <cfRule type="iconSet" priority="31">
+  <conditionalFormatting sqref="H2:H204">
+    <cfRule type="iconSet" priority="42">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="40"/>
@@ -6690,7 +4368,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -6725,12 +4403,12 @@
       <c r="E2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F2" s="41"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
       <c r="H2" s="17">
         <v>0</v>
       </c>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="85" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6738,7 +4416,7 @@
       <c r="A3" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -6750,19 +4428,19 @@
       <c r="E3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="91">
+      <c r="F3" s="35"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="83">
         <f>Général!H9</f>
         <v>0</v>
       </c>
-      <c r="I3" s="93"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -6775,18 +4453,18 @@
         <v>145</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="41">
+      <c r="G4" s="43"/>
+      <c r="H4" s="38">
         <f>Général!H10</f>
         <v>0</v>
       </c>
-      <c r="I4" s="93"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -6804,16 +4482,16 @@
         <f>Général!H12</f>
         <v>0</v>
       </c>
-      <c r="I5" s="93"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -6824,11 +4502,11 @@
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="42">
+      <c r="H6" s="39">
         <f>Général!H15</f>
         <v>0</v>
       </c>
-      <c r="I6" s="93"/>
+      <c r="I6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -6846,16 +4524,16 @@
       <c r="E7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="91">
+      <c r="H7" s="83">
         <f>Général!H19</f>
         <v>0</v>
       </c>
-      <c r="I7" s="93"/>
+      <c r="I7" s="85"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="66" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -6872,35 +4550,35 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="41">
+      <c r="H8" s="38">
         <f>Général!H23</f>
         <v>0</v>
       </c>
-      <c r="I8" s="93"/>
+      <c r="I8" s="85"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="33" t="s">
         <v>168</v>
       </c>
       <c r="F9" s="19"/>
-      <c r="G9" s="36"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="20" t="e">
         <f>Général!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I9" s="93"/>
+      <c r="I9" s="85"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
@@ -6918,13 +4596,13 @@
       <c r="E10" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="92">
-        <f>Général!H71</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="93"/>
+      <c r="H10" s="84" t="e">
+        <f>Général!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="85"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
@@ -6945,13 +4623,13 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
       <c r="H11" s="18">
-        <f>Général!H79</f>
-        <v>40</v>
-      </c>
-      <c r="I11" s="93"/>
+        <f>Général!H86</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6969,13 +4647,13 @@
       <c r="F12" s="16"/>
       <c r="G12" s="1"/>
       <c r="H12" s="18">
-        <f>Général!H80</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="93"/>
+        <f>Général!H87</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="66" t="s">
         <v>178</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6993,13 +4671,13 @@
       <c r="F13" s="16"/>
       <c r="G13" s="1"/>
       <c r="H13" s="18">
-        <f>Général!H81</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="93"/>
+        <f>Général!H88</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="85"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="66" t="s">
         <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -7017,13 +4695,13 @@
       <c r="F14" s="16"/>
       <c r="G14" s="1"/>
       <c r="H14" s="18">
-        <f>Général!H82</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="93"/>
+        <f>Général!H89</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="85"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="66" t="s">
         <v>178</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -7041,13 +4719,13 @@
       <c r="F15" s="16"/>
       <c r="G15" s="1"/>
       <c r="H15" s="18">
-        <f>Général!H83</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="93"/>
+        <f>Général!H90</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="66" t="s">
         <v>178</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -7065,19 +4743,19 @@
       <c r="F16" s="16"/>
       <c r="G16" s="1"/>
       <c r="H16" s="18">
-        <f>Général!H84</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="93"/>
+        <f>Général!H91</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="85"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="33" t="s">
         <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -7087,12 +4765,12 @@
         <v>147</v>
       </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="56">
-        <f>Général!H85</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="93"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="53">
+        <f>Général!H92</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="85"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
@@ -7112,35 +4790,35 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="83">
-        <f>Général!H98</f>
-        <v>100</v>
-      </c>
-      <c r="I18" s="93"/>
+      <c r="H18" s="75">
+        <f>Général!H105</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="85"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="68" t="s">
         <v>156</v>
       </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="36"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="19">
-        <f>Général!H99</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="93"/>
+        <f>Général!H106</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="85"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -7152,19 +4830,19 @@
       <c r="C20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="56">
-        <f>Général!H113</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="93"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="53">
+        <f>Général!H120</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="85"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -7182,16 +4860,16 @@
       <c r="E21" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="53"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="83">
-        <f>Général!H132</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="93"/>
+      <c r="H21" s="75">
+        <f>Général!H139</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="85"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -7209,13 +4887,13 @@
       <c r="F22" s="18"/>
       <c r="G22" s="1"/>
       <c r="H22" s="16">
-        <f>Général!H133</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="93"/>
+        <f>Général!H140</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -7232,14 +4910,14 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="56">
-        <f>Général!H134</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="93"/>
+      <c r="H23" s="53">
+        <f>Général!H141</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="85"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -7257,13 +4935,13 @@
       <c r="F24" s="18"/>
       <c r="G24" s="1"/>
       <c r="H24" s="16">
-        <f>Général!H135</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="93"/>
+        <f>Général!H142</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="85"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -7281,13 +4959,13 @@
       <c r="F25" s="18"/>
       <c r="G25" s="1"/>
       <c r="H25" s="18">
-        <f>Général!H136</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="93"/>
+        <f>Général!H143</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="85"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -7305,13 +4983,13 @@
       <c r="F26" s="16"/>
       <c r="G26" s="1"/>
       <c r="H26" s="16">
-        <f>Général!H138</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="93"/>
+        <f>Général!H145</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="85"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -7329,13 +5007,13 @@
       <c r="F27" s="16"/>
       <c r="G27" s="1"/>
       <c r="H27" s="16">
-        <f>Général!H146</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="93"/>
+        <f>Général!H153</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="85"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -7353,13 +5031,13 @@
       <c r="F28" s="16"/>
       <c r="G28" s="1"/>
       <c r="H28" s="16">
-        <f>Général!H153</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="93"/>
+        <f>Général!H160</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="85"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -7377,13 +5055,13 @@
       <c r="F29" s="16"/>
       <c r="G29" s="1"/>
       <c r="H29" s="16">
-        <f>Général!H161</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="93"/>
+        <f>Général!H168</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="85"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -7401,13 +5079,13 @@
       <c r="F30" s="16"/>
       <c r="G30" s="1"/>
       <c r="H30" s="16">
-        <f>Général!H164</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="93"/>
+        <f>Général!H171</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="85"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -7425,13 +5103,13 @@
       <c r="F31" s="16"/>
       <c r="G31" s="1"/>
       <c r="H31" s="16">
-        <f>Général!H167</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="93"/>
+        <f>Général!H174</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="85"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -7449,13 +5127,13 @@
       <c r="F32" s="16"/>
       <c r="G32" s="1"/>
       <c r="H32" s="16">
-        <f>Général!H169</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="93"/>
+        <f>Général!H176</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -7473,13 +5151,13 @@
       <c r="F33" s="16"/>
       <c r="G33" s="1"/>
       <c r="H33" s="16">
-        <f>Général!H172</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="93"/>
+        <f>Général!H179</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="85"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -7497,13 +5175,13 @@
       <c r="F34" s="16"/>
       <c r="G34" s="1"/>
       <c r="H34" s="16">
-        <f>Général!H175</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="93"/>
+        <f>Général!H182</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="85"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -7521,13 +5199,13 @@
       <c r="F35" s="16"/>
       <c r="G35" s="1"/>
       <c r="H35" s="16">
-        <f>Général!H178</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="93"/>
+        <f>Général!H185</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="85"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -7545,13 +5223,13 @@
       <c r="F36" s="16"/>
       <c r="G36" s="1"/>
       <c r="H36" s="16">
-        <f>Général!H180</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="93"/>
+        <f>Général!H187</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="85"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -7569,13 +5247,13 @@
       <c r="F37" s="16"/>
       <c r="G37" s="1"/>
       <c r="H37" s="16">
-        <f>Général!H182</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="93"/>
+        <f>Général!H189</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="85"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -7593,13 +5271,13 @@
       <c r="F38" s="16"/>
       <c r="G38" s="1"/>
       <c r="H38" s="16">
-        <f>Général!H184</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="93"/>
+        <f>Général!H191</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="85"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -7617,13 +5295,13 @@
       <c r="F39" s="16"/>
       <c r="G39" s="1"/>
       <c r="H39" s="16">
-        <f>Général!H188</f>
-        <v>100</v>
-      </c>
-      <c r="I39" s="93"/>
+        <f>Général!H195</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="85"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -7641,13 +5319,13 @@
       <c r="F40" s="16"/>
       <c r="G40" s="1"/>
       <c r="H40" s="16">
-        <f>Général!H190</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="93"/>
+        <f>Général!H197</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="85"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -7665,13 +5343,13 @@
       <c r="F41" s="16"/>
       <c r="G41" s="1"/>
       <c r="H41" s="16">
-        <f>Général!H192</f>
-        <v>100</v>
-      </c>
-      <c r="I41" s="93"/>
+        <f>Général!H199</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="85"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -7689,13 +5367,13 @@
       <c r="F42" s="16"/>
       <c r="G42" s="1"/>
       <c r="H42" s="16">
-        <f>Général!H196</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="93"/>
+        <f>Général!H203</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="85"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -7713,10 +5391,10 @@
       <c r="F43" s="16"/>
       <c r="G43" s="1"/>
       <c r="H43" s="16">
-        <f>Général!H197</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="93"/>
+        <f>Général!H204</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="85"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10">
@@ -7774,7 +5452,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -7814,13 +5492,13 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="16">
-        <f>Général!H93</f>
-        <v>30</v>
+        <f>Général!H100</f>
+        <v>0</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="66" t="s">
         <v>178</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -7838,7 +5516,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="6"/>
       <c r="H3" s="19">
-        <f>Général!H94</f>
+        <f>Général!H101</f>
         <v>0</v>
       </c>
       <c r="I3" s="19"/>
@@ -7856,16 +5534,16 @@
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>78</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="40">
-        <f>Général!H103</f>
-        <v>100</v>
+      <c r="H4" s="37">
+        <f>Général!H110</f>
+        <v>0</v>
       </c>
       <c r="I4" s="19"/>
     </row>
@@ -7888,13 +5566,13 @@
       <c r="F5" s="16"/>
       <c r="G5" s="2"/>
       <c r="H5" s="16">
-        <f>Général!H106</f>
-        <v>60</v>
+        <f>Général!H113</f>
+        <v>0</v>
       </c>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -7912,13 +5590,13 @@
       <c r="F6" s="16"/>
       <c r="G6" s="2"/>
       <c r="H6" s="16">
-        <f>Général!H108</f>
+        <f>Général!H115</f>
         <v>0</v>
       </c>
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7936,13 +5614,13 @@
       <c r="F7" s="16"/>
       <c r="G7" s="2"/>
       <c r="H7" s="16">
-        <f>Général!H111</f>
+        <f>Général!H118</f>
         <v>0</v>
       </c>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="67" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -7954,14 +5632,14 @@
       <c r="D8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="6"/>
       <c r="H8" s="19">
-        <f>Général!H112</f>
-        <v>60</v>
+        <f>Général!H119</f>
+        <v>0</v>
       </c>
       <c r="I8" s="19"/>
     </row>
@@ -7978,19 +5656,19 @@
       <c r="D9" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="9"/>
       <c r="H9" s="18">
-        <f>Général!H142</f>
+        <f>Général!H149</f>
         <v>0</v>
       </c>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8008,13 +5686,13 @@
       <c r="F10" s="16"/>
       <c r="G10" s="2"/>
       <c r="H10" s="16">
-        <f>Général!H149</f>
+        <f>Général!H156</f>
         <v>0</v>
       </c>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -8034,13 +5712,13 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="16">
-        <f>Général!H156</f>
+        <f>Général!H163</f>
         <v>0</v>
       </c>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -8058,13 +5736,13 @@
       <c r="F12" s="17"/>
       <c r="G12" s="2"/>
       <c r="H12" s="16">
-        <f>Général!H157</f>
+        <f>Général!H164</f>
         <v>0</v>
       </c>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8085,7 +5763,7 @@
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -8152,7 +5830,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -8175,20 +5853,20 @@
       <c r="A2" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="34" t="s">
         <v>132</v>
       </c>
       <c r="F2" s="20"/>
-      <c r="G2" s="37"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8204,7 +5882,7 @@
       <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="40" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="18"/>
@@ -8212,7 +5890,7 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -8232,7 +5910,7 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -8252,7 +5930,7 @@
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -8272,7 +5950,7 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -8292,23 +5970,23 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="69" t="s">
         <v>292</v>
       </c>
       <c r="F8" s="19"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8324,7 +6002,7 @@
       <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="40" t="s">
         <v>120</v>
       </c>
       <c r="F9" s="18"/>
@@ -8332,7 +6010,7 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -8352,7 +6030,7 @@
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -8372,7 +6050,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -8392,7 +6070,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -8412,7 +6090,7 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -8432,7 +6110,7 @@
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -8452,7 +6130,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -8472,7 +6150,7 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -8492,7 +6170,7 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -8512,7 +6190,7 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -8532,7 +6210,7 @@
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -8552,7 +6230,7 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -8572,7 +6250,7 @@
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -8630,7 +6308,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -8650,1493 +6328,1493 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="58" t="s">
+      <c r="B2" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="55" t="s">
         <v>160</v>
       </c>
       <c r="F2" s="20"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="80"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="45" t="s">
         <v>144</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="48"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="81"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="46" t="s">
         <v>145</v>
       </c>
       <c r="F5" s="17"/>
-      <c r="G5" s="48"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="81"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="46" t="s">
         <v>146</v>
       </c>
       <c r="F6" s="17"/>
-      <c r="G6" s="48"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="81"/>
+      <c r="I6" s="73"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="56" t="s">
         <v>147</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="82"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="74"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="45" t="s">
         <v>166</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="80"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="51" t="s">
         <v>168</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="54"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="81"/>
+      <c r="I9" s="73"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="58" t="s">
+      <c r="B10" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="82"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="74"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="46" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="80"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="46" t="s">
         <v>175</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="48"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="81"/>
+      <c r="I12" s="73"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="46" t="s">
         <v>176</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="48"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="81"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="47" t="s">
         <v>177</v>
       </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="82"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="46" t="s">
         <v>181</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="46" t="s">
         <v>146</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="48"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="81"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="46" t="s">
         <v>145</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="81"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="50" t="s">
+      <c r="B18" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="47" t="s">
         <v>182</v>
       </c>
       <c r="F18" s="19"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="82"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="45" t="s">
         <v>313</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="80"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="54" t="s">
+      <c r="B20" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="51" t="s">
         <v>315</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="54"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="81"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="B21" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="67" t="s">
+      <c r="B21" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="67"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="81"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="50" t="s">
+      <c r="B22" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="47" t="s">
         <v>317</v>
       </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="82"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="74"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="80"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="B24" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="54" t="s">
+      <c r="B24" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="51" t="s">
         <v>325</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="54"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="81"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="B25" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="54" t="s">
+      <c r="B25" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="51" t="s">
         <v>326</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="54"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="81"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="58" t="s">
+      <c r="B26" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="82"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="74"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="57" t="s">
         <v>189</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="80"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="54" t="s">
+      <c r="B28" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="57" t="s">
         <v>188</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="54"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="81"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="54" t="s">
+      <c r="B29" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="57" t="s">
         <v>146</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="54"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="81"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="B30" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="54" t="s">
+      <c r="B30" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="57" t="s">
         <v>147</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="54"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="81"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="54" t="s">
+      <c r="B31" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="57" t="s">
         <v>190</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="54"/>
+      <c r="G31" s="51"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="54" t="s">
+      <c r="B32" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="57" t="s">
         <v>191</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="54"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="54" t="s">
+      <c r="B33" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="57" t="s">
         <v>192</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="62" t="s">
+      <c r="B34" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="53"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="84"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="B35" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="48" t="s">
+      <c r="B35" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="46" t="s">
         <v>202</v>
       </c>
       <c r="F35" s="18"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="65"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="B36" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="58" t="s">
+      <c r="B36" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="82"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="48" t="s">
+      <c r="B37" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="46" t="s">
         <v>209</v>
       </c>
       <c r="F37" s="18"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="65"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="54" t="s">
+      <c r="B38" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="51" t="s">
         <v>210</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="65"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="50" t="s">
+      <c r="B39" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="47" t="s">
         <v>212</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="82"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="74"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="48" t="s">
+      <c r="B40" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="46" t="s">
         <v>293</v>
       </c>
       <c r="F40" s="18"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="80"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="72"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="54" t="s">
+      <c r="B41" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="60" t="s">
+      <c r="E41" s="57" t="s">
         <v>308</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="54"/>
+      <c r="G41" s="51"/>
       <c r="H41" s="18"/>
-      <c r="I41" s="85"/>
+      <c r="I41" s="77"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="54" t="s">
+      <c r="B42" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="57" t="s">
         <v>310</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="54"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="85"/>
+      <c r="I42" s="77"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="54" t="s">
+      <c r="B43" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="57" t="s">
         <v>204</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="54"/>
+      <c r="G43" s="51"/>
       <c r="H43" s="18"/>
-      <c r="I43" s="85"/>
+      <c r="I43" s="77"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="54" t="s">
+      <c r="B44" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="57" t="s">
         <v>205</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="54"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="85"/>
+      <c r="I44" s="77"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="50" t="s">
+      <c r="B45" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="47" t="s">
         <v>206</v>
       </c>
       <c r="F45" s="19"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="82"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="74"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="48" t="s">
+      <c r="B46" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="46" t="s">
         <v>232</v>
       </c>
       <c r="F46" s="18"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="80"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="72"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="48" t="s">
+      <c r="B47" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="46" t="s">
         <v>244</v>
       </c>
       <c r="F47" s="18"/>
-      <c r="G47" s="48"/>
+      <c r="G47" s="45"/>
       <c r="H47" s="18"/>
-      <c r="I47" s="85"/>
+      <c r="I47" s="77"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="48" t="s">
+      <c r="B48" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="46" t="s">
         <v>243</v>
       </c>
       <c r="F48" s="18"/>
-      <c r="G48" s="48"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="48" t="s">
+      <c r="B49" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="46" t="s">
         <v>242</v>
       </c>
       <c r="F49" s="18"/>
-      <c r="G49" s="48"/>
+      <c r="G49" s="45"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="85"/>
+      <c r="I49" s="77"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="73" t="s">
+      <c r="A50" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="48" t="s">
+      <c r="B50" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E50" s="46" t="s">
         <v>305</v>
       </c>
       <c r="F50" s="18"/>
-      <c r="G50" s="48"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="18"/>
-      <c r="I50" s="85"/>
+      <c r="I50" s="77"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="54" t="s">
+      <c r="B51" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="E51" s="60" t="s">
+      <c r="E51" s="57" t="s">
         <v>214</v>
       </c>
       <c r="F51" s="16"/>
-      <c r="G51" s="54"/>
+      <c r="G51" s="51"/>
       <c r="H51" s="18"/>
-      <c r="I51" s="85"/>
+      <c r="I51" s="77"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="54" t="s">
+      <c r="B52" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D52" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="57" t="s">
         <v>226</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="54"/>
+      <c r="G52" s="51"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="85"/>
+      <c r="I52" s="77"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="54" t="s">
+      <c r="B53" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="57" t="s">
         <v>217</v>
       </c>
       <c r="F53" s="16"/>
-      <c r="G53" s="54"/>
+      <c r="G53" s="51"/>
       <c r="H53" s="18"/>
-      <c r="I53" s="85"/>
+      <c r="I53" s="77"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="54" t="s">
+      <c r="B54" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="57" t="s">
         <v>224</v>
       </c>
       <c r="F54" s="16"/>
-      <c r="G54" s="54"/>
+      <c r="G54" s="51"/>
       <c r="H54" s="18"/>
-      <c r="I54" s="85"/>
+      <c r="I54" s="77"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="73" t="s">
+      <c r="A55" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="54" t="s">
+      <c r="B55" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="54" t="s">
+      <c r="D55" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="57" t="s">
         <v>225</v>
       </c>
       <c r="F55" s="16"/>
-      <c r="G55" s="54"/>
+      <c r="G55" s="51"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="85"/>
+      <c r="I55" s="77"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="54" t="s">
+      <c r="B56" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="E56" s="60" t="s">
+      <c r="E56" s="57" t="s">
         <v>227</v>
       </c>
       <c r="F56" s="16"/>
-      <c r="G56" s="54"/>
+      <c r="G56" s="51"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="85"/>
+      <c r="I56" s="77"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="54" t="s">
+      <c r="B57" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="E57" s="60" t="s">
+      <c r="E57" s="57" t="s">
         <v>228</v>
       </c>
       <c r="F57" s="17"/>
-      <c r="G57" s="54"/>
+      <c r="G57" s="51"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="85"/>
+      <c r="I57" s="77"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="73" t="s">
+      <c r="A58" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="54" t="s">
+      <c r="B58" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="60" t="s">
+      <c r="E58" s="57" t="s">
         <v>229</v>
       </c>
       <c r="F58" s="17"/>
-      <c r="G58" s="54"/>
+      <c r="G58" s="51"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="85"/>
+      <c r="I58" s="77"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="54" t="s">
+      <c r="B59" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E59" s="60" t="s">
+      <c r="E59" s="57" t="s">
         <v>230</v>
       </c>
       <c r="F59" s="17"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="54" t="s">
+      <c r="B60" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="54" t="s">
+      <c r="D60" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="E60" s="60" t="s">
+      <c r="E60" s="57" t="s">
         <v>246</v>
       </c>
       <c r="F60" s="16"/>
-      <c r="G60" s="54"/>
+      <c r="G60" s="51"/>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="73" t="s">
+      <c r="A61" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="54" t="s">
+      <c r="B61" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="54" t="s">
+      <c r="D61" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="57" t="s">
         <v>248</v>
       </c>
       <c r="F61" s="16"/>
-      <c r="G61" s="54"/>
+      <c r="G61" s="51"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="54" t="s">
+      <c r="B62" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="E62" s="60" t="s">
+      <c r="E62" s="57" t="s">
         <v>275</v>
       </c>
       <c r="F62" s="16"/>
-      <c r="G62" s="54"/>
+      <c r="G62" s="51"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="73" t="s">
+      <c r="A63" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="54" t="s">
+      <c r="B63" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="E63" s="60" t="s">
+      <c r="E63" s="57" t="s">
         <v>277</v>
       </c>
       <c r="F63" s="16"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="54" t="s">
+      <c r="B64" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="E64" s="60" t="s">
+      <c r="E64" s="57" t="s">
         <v>279</v>
       </c>
       <c r="F64" s="16"/>
-      <c r="G64" s="54"/>
+      <c r="G64" s="51"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="54" t="s">
+      <c r="B65" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="57" t="s">
         <v>280</v>
       </c>
       <c r="F65" s="16"/>
-      <c r="G65" s="54"/>
+      <c r="G65" s="51"/>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="73" t="s">
+      <c r="A66" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="54" t="s">
+      <c r="B66" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="D66" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="E66" s="60" t="s">
+      <c r="E66" s="57" t="s">
         <v>287</v>
       </c>
       <c r="F66" s="16"/>
-      <c r="G66" s="54"/>
+      <c r="G66" s="51"/>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B67" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="54" t="s">
+      <c r="B67" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="54" t="s">
+      <c r="D67" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="E67" s="60" t="s">
+      <c r="E67" s="57" t="s">
         <v>286</v>
       </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="54"/>
+      <c r="G67" s="51"/>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="73" t="s">
+      <c r="A68" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="54" t="s">
+      <c r="B68" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="54" t="s">
+      <c r="D68" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="E68" s="60" t="s">
+      <c r="E68" s="57" t="s">
         <v>285</v>
       </c>
       <c r="F68" s="16"/>
-      <c r="G68" s="54"/>
+      <c r="G68" s="51"/>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="54" t="s">
+      <c r="B69" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="54" t="s">
+      <c r="D69" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="E69" s="60" t="s">
+      <c r="E69" s="57" t="s">
         <v>299</v>
       </c>
       <c r="F69" s="16"/>
-      <c r="G69" s="54"/>
+      <c r="G69" s="51"/>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="54" t="s">
+      <c r="B70" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="54" t="s">
+      <c r="D70" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="E70" s="60" t="s">
+      <c r="E70" s="57" t="s">
         <v>251</v>
       </c>
       <c r="F70" s="16"/>
-      <c r="G70" s="54"/>
+      <c r="G70" s="51"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="54" t="s">
+      <c r="B71" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="54" t="s">
+      <c r="D71" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="E71" s="60" t="s">
+      <c r="E71" s="57" t="s">
         <v>252</v>
       </c>
       <c r="F71" s="16"/>
-      <c r="G71" s="54"/>
+      <c r="G71" s="51"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="54" t="s">
+      <c r="B72" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="54" t="s">
+      <c r="D72" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="E72" s="60" t="s">
+      <c r="E72" s="57" t="s">
         <v>307</v>
       </c>
       <c r="F72" s="16"/>
-      <c r="G72" s="54"/>
+      <c r="G72" s="51"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
     </row>
@@ -10169,7 +7847,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -10212,7 +7890,7 @@
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="66" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -10235,23 +7913,23 @@
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="81" t="s">
         <v>85</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="86"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="19">
         <v>100</v>
       </c>
@@ -10261,22 +7939,22 @@
       <c r="A5" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
@@ -10291,7 +7969,7 @@
       <c r="D6" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="30" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="18"/>
@@ -10300,7 +7978,7 @@
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -10321,7 +7999,7 @@
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -10333,7 +8011,7 @@
       <c r="D8" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="30" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="18"/>
@@ -10342,7 +8020,7 @@
       <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -10354,7 +8032,7 @@
       <c r="D9" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="30" t="s">
         <v>105</v>
       </c>
       <c r="F9" s="18"/>
@@ -10436,12 +8114,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="D1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="90" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="D1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="82" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -10461,20 +8139,20 @@
       <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="29" t="s">
         <v>100</v>
       </c>
       <c r="F2" s="18"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="18">
         <v>80</v>
       </c>
@@ -10483,23 +8161,23 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="18"/>
-      <c r="G3" s="28"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="18">
         <v>80</v>
       </c>
@@ -10508,23 +8186,23 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>102</v>
       </c>
       <c r="F4" s="18"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="18">
         <v>80</v>
       </c>

--- a/GameDesign/Templates_Organisation_G4.xlsx
+++ b/GameDesign/Templates_Organisation_G4.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Design" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Général!$A$1:$I$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Général!$A$1:$I$205</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="476">
   <si>
     <t>Feature</t>
   </si>
@@ -1181,9 +1181,6 @@
     <t>Socle pour les cartes</t>
   </si>
   <si>
-    <t>icon_socle</t>
-  </si>
-  <si>
     <t>icon_Time</t>
   </si>
   <si>
@@ -1446,6 +1443,15 @@
   </si>
   <si>
     <t>code_controls</t>
+  </si>
+  <si>
+    <t>icon_socle_turn</t>
+  </si>
+  <si>
+    <t>icon_socle_card</t>
+  </si>
+  <si>
+    <t>Socle pour le message qui indique le tour</t>
   </si>
 </sst>
 </file>
@@ -2447,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,10 +2617,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="2"/>
@@ -2634,10 +2640,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="2"/>
@@ -3133,7 +3139,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>369</v>
@@ -3238,9 +3244,7 @@
       <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66" t="s">
-        <v>344</v>
-      </c>
+      <c r="A34" s="66"/>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
@@ -3248,16 +3252,14 @@
         <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>385</v>
+        <v>473</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>384</v>
+        <v>475</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="17">
-        <v>0</v>
-      </c>
+      <c r="H34" s="17"/>
       <c r="I34" s="99" t="s">
         <v>333</v>
       </c>
@@ -3273,10 +3275,10 @@
         <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>387</v>
+        <v>474</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
@@ -3291,24 +3293,26 @@
       <c r="A36" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="B36" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>396</v>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="F36" s="18"/>
-      <c r="G36" s="45"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="17">
         <v>0</v>
       </c>
-      <c r="I36" s="89"/>
+      <c r="I36" s="99" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66" t="s">
@@ -3344,10 +3348,10 @@
         <v>8</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="45"/>
@@ -3367,10 +3371,10 @@
         <v>8</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="45"/>
@@ -3390,10 +3394,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="45"/>
@@ -3413,10 +3417,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="45"/>
@@ -3436,10 +3440,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="45"/>
@@ -3459,14 +3463,12 @@
         <v>8</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="F43" s="103">
-        <v>1</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="F43" s="18"/>
       <c r="G43" s="45"/>
       <c r="H43" s="17">
         <v>0</v>
@@ -3484,12 +3486,14 @@
         <v>8</v>
       </c>
       <c r="D44" s="51" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>436</v>
-      </c>
-      <c r="F44" s="16"/>
+        <v>413</v>
+      </c>
+      <c r="F44" s="103">
+        <v>1</v>
+      </c>
       <c r="G44" s="45"/>
       <c r="H44" s="17">
         <v>0</v>
@@ -3507,12 +3511,12 @@
         <v>8</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>412</v>
-      </c>
-      <c r="F45" s="18"/>
+        <v>435</v>
+      </c>
+      <c r="F45" s="16"/>
       <c r="G45" s="45"/>
       <c r="H45" s="17">
         <v>0</v>
@@ -3523,20 +3527,20 @@
       <c r="A46" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="B46" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>418</v>
+      <c r="B46" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>411</v>
       </c>
       <c r="F46" s="18"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="45"/>
       <c r="H46" s="17">
         <v>0</v>
       </c>
@@ -3553,10 +3557,10 @@
         <v>8</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="3"/>
@@ -3576,10 +3580,10 @@
         <v>8</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="3"/>
@@ -3599,40 +3603,40 @@
         <v>8</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="38">
-        <v>0</v>
-      </c>
-      <c r="I49" s="87"/>
+      <c r="H49" s="17">
+        <v>0</v>
+      </c>
+      <c r="I49" s="89"/>
     </row>
     <row r="50" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="B50" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>427</v>
+      <c r="B50" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="F50" s="18"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="17">
-        <v>0</v>
-      </c>
-      <c r="I50" s="86"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="38">
+        <v>0</v>
+      </c>
+      <c r="I50" s="87"/>
     </row>
     <row r="51" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="66" t="s">
@@ -3644,14 +3648,14 @@
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="101" t="s">
-        <v>422</v>
-      </c>
-      <c r="E51" s="105" t="s">
-        <v>428</v>
+      <c r="D51" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>426</v>
       </c>
       <c r="F51" s="18"/>
-      <c r="G51" s="101"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="17">
         <v>0</v>
       </c>
@@ -3668,10 +3672,10 @@
         <v>8</v>
       </c>
       <c r="D52" s="101" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E52" s="105" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="101"/>
@@ -3691,10 +3695,10 @@
         <v>8</v>
       </c>
       <c r="D53" s="101" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E53" s="105" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="101"/>
@@ -3714,10 +3718,10 @@
         <v>8</v>
       </c>
       <c r="D54" s="101" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E54" s="105" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="101"/>
@@ -3737,14 +3741,16 @@
         <v>8</v>
       </c>
       <c r="D55" s="101" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E55" s="105" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="101"/>
-      <c r="H55" s="39"/>
+      <c r="H55" s="17">
+        <v>0</v>
+      </c>
       <c r="I55" s="86"/>
     </row>
     <row r="56" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3757,83 +3763,91 @@
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="E56" s="105" t="s">
+        <v>431</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="39">
+        <v>0</v>
+      </c>
+      <c r="I56" s="86"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B57" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="F57" s="102"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="39">
+        <v>0</v>
+      </c>
+      <c r="I57" s="86"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="B58" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="100" t="s">
         <v>391</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E58" s="100" t="s">
         <v>389</v>
       </c>
-      <c r="F56" s="102"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="86"/>
-    </row>
-    <row r="57" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="107" t="s">
-        <v>344</v>
-      </c>
-      <c r="B57" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="100" t="s">
-        <v>392</v>
-      </c>
-      <c r="E57" s="100" t="s">
-        <v>390</v>
-      </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="90"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="111" t="s">
-        <v>438</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="F58" s="110"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="88"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="66" t="s">
-        <v>437</v>
+      <c r="F58" s="17"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="112">
+        <v>0</v>
+      </c>
+      <c r="I58" s="90"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="42" t="s">
-        <v>440</v>
-      </c>
-      <c r="E59" s="42" t="s">
-        <v>441</v>
-      </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="91"/>
+      <c r="D59" s="111" t="s">
+        <v>437</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F59" s="110"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="109">
+        <v>0</v>
+      </c>
+      <c r="I59" s="88"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>6</v>
@@ -3841,41 +3855,45 @@
       <c r="C60" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>443</v>
+      <c r="D60" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>440</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="17"/>
+      <c r="H60" s="17">
+        <v>0</v>
+      </c>
       <c r="I60" s="91"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="66" t="s">
-        <v>437</v>
-      </c>
-      <c r="B61" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="45" t="s">
-        <v>438</v>
-      </c>
-      <c r="E61" s="46" t="s">
-        <v>446</v>
-      </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="92"/>
+      <c r="D61" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="17">
+        <v>0</v>
+      </c>
+      <c r="I61" s="91"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B62" s="45" t="s">
         <v>138</v>
@@ -3884,19 +3902,21 @@
         <v>139</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>445</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="45"/>
-      <c r="H62" s="18"/>
+      <c r="H62" s="16">
+        <v>0</v>
+      </c>
       <c r="I62" s="92"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>138</v>
@@ -3905,19 +3925,21 @@
         <v>139</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="E63" s="46" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="45"/>
-      <c r="H63" s="18"/>
+      <c r="H63" s="18">
+        <v>0</v>
+      </c>
       <c r="I63" s="92"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B64" s="45" t="s">
         <v>138</v>
@@ -3926,19 +3948,21 @@
         <v>139</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="45"/>
-      <c r="H64" s="18"/>
+      <c r="H64" s="18">
+        <v>0</v>
+      </c>
       <c r="I64" s="92"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>138</v>
@@ -3947,19 +3971,21 @@
         <v>139</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E65" s="46" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="45"/>
-      <c r="H65" s="18"/>
+      <c r="H65" s="18">
+        <v>0</v>
+      </c>
       <c r="I65" s="92"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B66" s="45" t="s">
         <v>138</v>
@@ -3968,19 +3994,21 @@
         <v>139</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E66" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="45"/>
-      <c r="H66" s="18"/>
+      <c r="H66" s="18">
+        <v>0</v>
+      </c>
       <c r="I66" s="92"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B67" s="45" t="s">
         <v>138</v>
@@ -3989,61 +4017,67 @@
         <v>139</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E67" s="46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="45"/>
-      <c r="H67" s="18"/>
+      <c r="H67" s="18">
+        <v>0</v>
+      </c>
       <c r="I67" s="92"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="66" t="s">
-        <v>437</v>
-      </c>
-      <c r="B68" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="48" t="s">
-        <v>454</v>
-      </c>
-      <c r="E68" s="49" t="s">
-        <v>457</v>
+      <c r="D68" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="E68" s="46" t="s">
+        <v>452</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="45"/>
-      <c r="H68" s="18"/>
+      <c r="H68" s="18">
+        <v>0</v>
+      </c>
       <c r="I68" s="92"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="66" t="s">
-        <v>437</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>459</v>
+        <v>436</v>
+      </c>
+      <c r="B69" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>456</v>
       </c>
       <c r="F69" s="18"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="18"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="18">
+        <v>0</v>
+      </c>
       <c r="I69" s="92"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>9</v>
@@ -4052,19 +4086,21 @@
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="101"/>
-      <c r="H70" s="18"/>
+      <c r="H70" s="18">
+        <v>0</v>
+      </c>
       <c r="I70" s="92"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>9</v>
@@ -4073,210 +4109,253 @@
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="101"/>
-      <c r="H71" s="18"/>
+      <c r="H71" s="18">
+        <v>0</v>
+      </c>
       <c r="I71" s="92"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="108" t="s">
-        <v>437</v>
-      </c>
-      <c r="B72" s="104" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="66" t="s">
+        <v>436</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="104" t="s">
-        <v>391</v>
-      </c>
-      <c r="E72" s="104" t="s">
-        <v>389</v>
-      </c>
-      <c r="F72" s="19"/>
-      <c r="G72" s="100"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="93"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="18">
+        <v>0</v>
+      </c>
+      <c r="I72" s="92"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="108" t="s">
+        <v>436</v>
+      </c>
+      <c r="B73" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="104" t="s">
+        <v>390</v>
+      </c>
+      <c r="E73" s="104" t="s">
+        <v>388</v>
+      </c>
+      <c r="F73" s="19"/>
+      <c r="G73" s="100"/>
+      <c r="H73" s="19">
+        <v>0</v>
+      </c>
+      <c r="I73" s="93"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="111" t="s">
         <v>464</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="E74" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="18">
+        <v>0</v>
+      </c>
+      <c r="I74" s="92"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="66" t="s">
+        <v>463</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="18">
+        <v>0</v>
+      </c>
+      <c r="I75" s="92"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="108" t="s">
+        <v>463</v>
+      </c>
+      <c r="B76" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="100" t="s">
+        <v>461</v>
+      </c>
+      <c r="E76" s="100" t="s">
+        <v>462</v>
+      </c>
+      <c r="F76" s="114"/>
+      <c r="G76" s="113"/>
+      <c r="H76" s="115">
+        <v>0</v>
+      </c>
+      <c r="I76" s="116"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B77" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="111" t="s">
-        <v>465</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="F73" s="18"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="92"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="66" t="s">
-        <v>464</v>
-      </c>
-      <c r="B74" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="E74" s="46" t="s">
-        <v>468</v>
-      </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="92"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="108" t="s">
-        <v>464</v>
-      </c>
-      <c r="B75" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="100" t="s">
-        <v>462</v>
-      </c>
-      <c r="E75" s="100" t="s">
-        <v>463</v>
-      </c>
-      <c r="F75" s="114"/>
-      <c r="G75" s="113"/>
-      <c r="H75" s="115"/>
-      <c r="I75" s="116"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="B76" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="C77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="F76" s="18"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="92"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" s="45" t="s">
-        <v>471</v>
-      </c>
-      <c r="E77" s="45" t="s">
+      <c r="E77" s="5" t="s">
         <v>469</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="45"/>
-      <c r="H77" s="18"/>
+      <c r="H77" s="18">
+        <v>0</v>
+      </c>
       <c r="I77" s="92"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="66" t="s">
-        <v>311</v>
-      </c>
-      <c r="B78" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="51" t="s">
+      <c r="A78" s="22"/>
+      <c r="B78" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D78" s="51" t="s">
-        <v>472</v>
-      </c>
-      <c r="E78" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="91"/>
+      <c r="D78" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="F78" s="18"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="18">
+        <v>0</v>
+      </c>
+      <c r="I78" s="92"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="B79" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" s="64" t="s">
+      <c r="B79" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="E79" s="64" t="s">
+      <c r="D79" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="F79" s="16"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="16">
+        <v>0</v>
+      </c>
+      <c r="I79" s="91"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="E80" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="F79" s="61"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="94"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="67" t="s">
+      <c r="F80" s="61"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="61">
+        <v>0</v>
+      </c>
+      <c r="I80" s="94"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="B80" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80" s="47" t="s">
+      <c r="B81" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D80" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="E80" s="47" t="s">
+      <c r="D81" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="E81" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="F80" s="19"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="93"/>
-    </row>
-    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F212" s="32"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="19">
+        <v>0</v>
+      </c>
+      <c r="I81" s="93"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F213" s="32"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H110">
+  <conditionalFormatting sqref="H111">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4285,7 +4364,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H131:H132">
+  <conditionalFormatting sqref="H132:H133">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4294,7 +4373,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H133:H204 H87:H122 H128:H130">
+  <conditionalFormatting sqref="H134:H205 H88:H123 H129:H131">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4303,7 +4382,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123:H127">
+  <conditionalFormatting sqref="H124:H128">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4321,7 +4400,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60:H84">
+  <conditionalFormatting sqref="H61:H85">
     <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4330,7 +4409,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H204">
+  <conditionalFormatting sqref="H2:H205">
     <cfRule type="iconSet" priority="42">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4623,7 +4702,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
       <c r="H11" s="18">
-        <f>Général!H86</f>
+        <f>Général!H87</f>
         <v>0</v>
       </c>
       <c r="I11" s="85"/>
@@ -4647,7 +4726,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="1"/>
       <c r="H12" s="18">
-        <f>Général!H87</f>
+        <f>Général!H88</f>
         <v>0</v>
       </c>
       <c r="I12" s="85"/>
@@ -4671,7 +4750,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="1"/>
       <c r="H13" s="18">
-        <f>Général!H88</f>
+        <f>Général!H89</f>
         <v>0</v>
       </c>
       <c r="I13" s="85"/>
@@ -4695,7 +4774,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="1"/>
       <c r="H14" s="18">
-        <f>Général!H89</f>
+        <f>Général!H90</f>
         <v>0</v>
       </c>
       <c r="I14" s="85"/>
@@ -4719,7 +4798,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="1"/>
       <c r="H15" s="18">
-        <f>Général!H90</f>
+        <f>Général!H91</f>
         <v>0</v>
       </c>
       <c r="I15" s="85"/>
@@ -4743,7 +4822,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="1"/>
       <c r="H16" s="18">
-        <f>Général!H91</f>
+        <f>Général!H92</f>
         <v>0</v>
       </c>
       <c r="I16" s="85"/>
@@ -4767,7 +4846,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="33"/>
       <c r="H17" s="53">
-        <f>Général!H92</f>
+        <f>Général!H93</f>
         <v>0</v>
       </c>
       <c r="I17" s="85"/>
@@ -4791,7 +4870,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="5"/>
       <c r="H18" s="75">
-        <f>Général!H105</f>
+        <f>Général!H106</f>
         <v>0</v>
       </c>
       <c r="I18" s="85"/>
@@ -4815,7 +4894,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="33"/>
       <c r="H19" s="19">
-        <f>Général!H106</f>
+        <f>Général!H107</f>
         <v>0</v>
       </c>
       <c r="I19" s="85"/>
@@ -4839,7 +4918,7 @@
       <c r="F20" s="53"/>
       <c r="G20" s="42"/>
       <c r="H20" s="53">
-        <f>Général!H120</f>
+        <f>Général!H121</f>
         <v>0</v>
       </c>
       <c r="I20" s="85"/>
@@ -4863,7 +4942,7 @@
       <c r="F21" s="50"/>
       <c r="G21" s="7"/>
       <c r="H21" s="75">
-        <f>Général!H139</f>
+        <f>Général!H140</f>
         <v>0</v>
       </c>
       <c r="I21" s="85"/>
@@ -4887,7 +4966,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="1"/>
       <c r="H22" s="16">
-        <f>Général!H140</f>
+        <f>Général!H141</f>
         <v>0</v>
       </c>
       <c r="I22" s="85"/>
@@ -4911,7 +4990,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="1"/>
       <c r="H23" s="53">
-        <f>Général!H141</f>
+        <f>Général!H142</f>
         <v>0</v>
       </c>
       <c r="I23" s="85"/>
@@ -4935,7 +5014,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="1"/>
       <c r="H24" s="16">
-        <f>Général!H142</f>
+        <f>Général!H143</f>
         <v>0</v>
       </c>
       <c r="I24" s="85"/>
@@ -4959,7 +5038,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="1"/>
       <c r="H25" s="18">
-        <f>Général!H143</f>
+        <f>Général!H144</f>
         <v>0</v>
       </c>
       <c r="I25" s="85"/>
@@ -4983,7 +5062,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="1"/>
       <c r="H26" s="16">
-        <f>Général!H145</f>
+        <f>Général!H146</f>
         <v>0</v>
       </c>
       <c r="I26" s="85"/>
@@ -5007,7 +5086,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="1"/>
       <c r="H27" s="16">
-        <f>Général!H153</f>
+        <f>Général!H154</f>
         <v>0</v>
       </c>
       <c r="I27" s="85"/>
@@ -5031,7 +5110,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="1"/>
       <c r="H28" s="16">
-        <f>Général!H160</f>
+        <f>Général!H161</f>
         <v>0</v>
       </c>
       <c r="I28" s="85"/>
@@ -5055,7 +5134,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="1"/>
       <c r="H29" s="16">
-        <f>Général!H168</f>
+        <f>Général!H169</f>
         <v>0</v>
       </c>
       <c r="I29" s="85"/>
@@ -5079,7 +5158,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="1"/>
       <c r="H30" s="16">
-        <f>Général!H171</f>
+        <f>Général!H172</f>
         <v>0</v>
       </c>
       <c r="I30" s="85"/>
@@ -5103,7 +5182,7 @@
       <c r="F31" s="16"/>
       <c r="G31" s="1"/>
       <c r="H31" s="16">
-        <f>Général!H174</f>
+        <f>Général!H175</f>
         <v>0</v>
       </c>
       <c r="I31" s="85"/>
@@ -5127,7 +5206,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="1"/>
       <c r="H32" s="16">
-        <f>Général!H176</f>
+        <f>Général!H177</f>
         <v>0</v>
       </c>
       <c r="I32" s="85"/>
@@ -5151,7 +5230,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="1"/>
       <c r="H33" s="16">
-        <f>Général!H179</f>
+        <f>Général!H180</f>
         <v>0</v>
       </c>
       <c r="I33" s="85"/>
@@ -5175,7 +5254,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="1"/>
       <c r="H34" s="16">
-        <f>Général!H182</f>
+        <f>Général!H183</f>
         <v>0</v>
       </c>
       <c r="I34" s="85"/>
@@ -5199,7 +5278,7 @@
       <c r="F35" s="16"/>
       <c r="G35" s="1"/>
       <c r="H35" s="16">
-        <f>Général!H185</f>
+        <f>Général!H186</f>
         <v>0</v>
       </c>
       <c r="I35" s="85"/>
@@ -5223,7 +5302,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="1"/>
       <c r="H36" s="16">
-        <f>Général!H187</f>
+        <f>Général!H188</f>
         <v>0</v>
       </c>
       <c r="I36" s="85"/>
@@ -5247,7 +5326,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="1"/>
       <c r="H37" s="16">
-        <f>Général!H189</f>
+        <f>Général!H190</f>
         <v>0</v>
       </c>
       <c r="I37" s="85"/>
@@ -5271,7 +5350,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="1"/>
       <c r="H38" s="16">
-        <f>Général!H191</f>
+        <f>Général!H192</f>
         <v>0</v>
       </c>
       <c r="I38" s="85"/>
@@ -5295,7 +5374,7 @@
       <c r="F39" s="16"/>
       <c r="G39" s="1"/>
       <c r="H39" s="16">
-        <f>Général!H195</f>
+        <f>Général!H196</f>
         <v>0</v>
       </c>
       <c r="I39" s="85"/>
@@ -5319,7 +5398,7 @@
       <c r="F40" s="16"/>
       <c r="G40" s="1"/>
       <c r="H40" s="16">
-        <f>Général!H197</f>
+        <f>Général!H198</f>
         <v>0</v>
       </c>
       <c r="I40" s="85"/>
@@ -5343,7 +5422,7 @@
       <c r="F41" s="16"/>
       <c r="G41" s="1"/>
       <c r="H41" s="16">
-        <f>Général!H199</f>
+        <f>Général!H200</f>
         <v>0</v>
       </c>
       <c r="I41" s="85"/>
@@ -5367,7 +5446,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="1"/>
       <c r="H42" s="16">
-        <f>Général!H203</f>
+        <f>Général!H204</f>
         <v>0</v>
       </c>
       <c r="I42" s="85"/>
@@ -5391,7 +5470,7 @@
       <c r="F43" s="16"/>
       <c r="G43" s="1"/>
       <c r="H43" s="16">
-        <f>Général!H204</f>
+        <f>Général!H205</f>
         <v>0</v>
       </c>
       <c r="I43" s="85"/>
@@ -5492,7 +5571,7 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="16">
-        <f>Général!H100</f>
+        <f>Général!H101</f>
         <v>0</v>
       </c>
       <c r="I2" s="16"/>
@@ -5516,7 +5595,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="6"/>
       <c r="H3" s="19">
-        <f>Général!H101</f>
+        <f>Général!H102</f>
         <v>0</v>
       </c>
       <c r="I3" s="19"/>
@@ -5542,7 +5621,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="37">
-        <f>Général!H110</f>
+        <f>Général!H111</f>
         <v>0</v>
       </c>
       <c r="I4" s="19"/>
@@ -5566,7 +5645,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="2"/>
       <c r="H5" s="16">
-        <f>Général!H113</f>
+        <f>Général!H114</f>
         <v>0</v>
       </c>
       <c r="I5" s="16"/>
@@ -5590,7 +5669,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="2"/>
       <c r="H6" s="16">
-        <f>Général!H115</f>
+        <f>Général!H116</f>
         <v>0</v>
       </c>
       <c r="I6" s="16"/>
@@ -5614,7 +5693,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="2"/>
       <c r="H7" s="16">
-        <f>Général!H118</f>
+        <f>Général!H119</f>
         <v>0</v>
       </c>
       <c r="I7" s="16"/>
@@ -5638,7 +5717,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="6"/>
       <c r="H8" s="19">
-        <f>Général!H119</f>
+        <f>Général!H120</f>
         <v>0</v>
       </c>
       <c r="I8" s="19"/>
@@ -5662,7 +5741,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="9"/>
       <c r="H9" s="18">
-        <f>Général!H149</f>
+        <f>Général!H150</f>
         <v>0</v>
       </c>
       <c r="I9" s="18"/>
@@ -5686,7 +5765,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="2"/>
       <c r="H10" s="16">
-        <f>Général!H156</f>
+        <f>Général!H157</f>
         <v>0</v>
       </c>
       <c r="I10" s="16"/>
@@ -5712,7 +5791,7 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="16">
-        <f>Général!H163</f>
+        <f>Général!H164</f>
         <v>0</v>
       </c>
       <c r="I11" s="16"/>
@@ -5736,7 +5815,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="2"/>
       <c r="H12" s="16">
-        <f>Général!H164</f>
+        <f>Général!H165</f>
         <v>0</v>
       </c>
       <c r="I12" s="16"/>

--- a/GameDesign/Templates_Organisation_G4.xlsx
+++ b/GameDesign/Templates_Organisation_G4.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Design" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Général!$A$1:$I$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Général!$A$1:$I$204</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="474">
   <si>
     <t>Feature</t>
   </si>
@@ -1181,6 +1181,9 @@
     <t>Socle pour les cartes</t>
   </si>
   <si>
+    <t>icon_socle</t>
+  </si>
+  <si>
     <t>icon_Time</t>
   </si>
   <si>
@@ -1443,15 +1446,6 @@
   </si>
   <si>
     <t>code_controls</t>
-  </si>
-  <si>
-    <t>icon_socle_turn</t>
-  </si>
-  <si>
-    <t>icon_socle_card</t>
-  </si>
-  <si>
-    <t>Socle pour le message qui indique le tour</t>
   </si>
 </sst>
 </file>
@@ -2453,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,10 +2611,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="2"/>
@@ -2640,10 +2634,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="2"/>
@@ -3139,7 +3133,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>369</v>
@@ -3244,7 +3238,9 @@
       <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
+      <c r="A34" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
@@ -3252,14 +3248,16 @@
         <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>473</v>
+        <v>385</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="17"/>
+      <c r="H34" s="17">
+        <v>0</v>
+      </c>
       <c r="I34" s="99" t="s">
         <v>333</v>
       </c>
@@ -3275,10 +3273,10 @@
         <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
@@ -3293,26 +3291,24 @@
       <c r="A36" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>387</v>
+      <c r="B36" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>396</v>
       </c>
       <c r="F36" s="18"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="17">
         <v>0</v>
       </c>
-      <c r="I36" s="99" t="s">
-        <v>333</v>
-      </c>
+      <c r="I36" s="89"/>
     </row>
     <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66" t="s">
@@ -3348,10 +3344,10 @@
         <v>8</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="45"/>
@@ -3371,10 +3367,10 @@
         <v>8</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="45"/>
@@ -3394,10 +3390,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="45"/>
@@ -3417,10 +3413,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="45"/>
@@ -3440,10 +3436,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="45"/>
@@ -3463,12 +3459,14 @@
         <v>8</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="F43" s="18"/>
+        <v>414</v>
+      </c>
+      <c r="F43" s="103">
+        <v>1</v>
+      </c>
       <c r="G43" s="45"/>
       <c r="H43" s="17">
         <v>0</v>
@@ -3486,14 +3484,12 @@
         <v>8</v>
       </c>
       <c r="D44" s="51" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>413</v>
-      </c>
-      <c r="F44" s="103">
-        <v>1</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="F44" s="16"/>
       <c r="G44" s="45"/>
       <c r="H44" s="17">
         <v>0</v>
@@ -3511,12 +3507,12 @@
         <v>8</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>435</v>
-      </c>
-      <c r="F45" s="16"/>
+        <v>412</v>
+      </c>
+      <c r="F45" s="18"/>
       <c r="G45" s="45"/>
       <c r="H45" s="17">
         <v>0</v>
@@ -3527,20 +3523,20 @@
       <c r="A46" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="B46" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>410</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>411</v>
+      <c r="B46" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="F46" s="18"/>
-      <c r="G46" s="45"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="17">
         <v>0</v>
       </c>
@@ -3557,10 +3553,10 @@
         <v>8</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="3"/>
@@ -3580,10 +3576,10 @@
         <v>8</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="3"/>
@@ -3603,40 +3599,40 @@
         <v>8</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="17">
-        <v>0</v>
-      </c>
-      <c r="I49" s="89"/>
+      <c r="H49" s="38">
+        <v>0</v>
+      </c>
+      <c r="I49" s="87"/>
     </row>
     <row r="50" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="B50" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>433</v>
+      <c r="B50" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="F50" s="18"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="38">
-        <v>0</v>
-      </c>
-      <c r="I50" s="87"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="17">
+        <v>0</v>
+      </c>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="66" t="s">
@@ -3648,14 +3644,14 @@
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>426</v>
+      <c r="D51" s="101" t="s">
+        <v>422</v>
+      </c>
+      <c r="E51" s="105" t="s">
+        <v>428</v>
       </c>
       <c r="F51" s="18"/>
-      <c r="G51" s="2"/>
+      <c r="G51" s="101"/>
       <c r="H51" s="17">
         <v>0</v>
       </c>
@@ -3672,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="D52" s="101" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E52" s="105" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="101"/>
@@ -3695,10 +3691,10 @@
         <v>8</v>
       </c>
       <c r="D53" s="101" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E53" s="105" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="101"/>
@@ -3718,10 +3714,10 @@
         <v>8</v>
       </c>
       <c r="D54" s="101" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E54" s="105" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="101"/>
@@ -3741,16 +3737,14 @@
         <v>8</v>
       </c>
       <c r="D55" s="101" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E55" s="105" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="101"/>
-      <c r="H55" s="17">
-        <v>0</v>
-      </c>
+      <c r="H55" s="39"/>
       <c r="I55" s="86"/>
     </row>
     <row r="56" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,91 +3757,83 @@
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="101" t="s">
-        <v>425</v>
-      </c>
-      <c r="E56" s="105" t="s">
-        <v>431</v>
-      </c>
-      <c r="F56" s="18"/>
+      <c r="D56" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F56" s="102"/>
       <c r="G56" s="101"/>
-      <c r="H56" s="39">
-        <v>0</v>
-      </c>
+      <c r="H56" s="39"/>
       <c r="I56" s="86"/>
     </row>
-    <row r="57" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66" t="s">
+    <row r="57" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="100" t="s">
+        <v>392</v>
+      </c>
+      <c r="E57" s="100" t="s">
         <v>390</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F57" s="102"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="39">
-        <v>0</v>
-      </c>
-      <c r="I57" s="86"/>
-    </row>
-    <row r="58" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="107" t="s">
-        <v>344</v>
-      </c>
-      <c r="B58" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="100" t="s">
-        <v>391</v>
-      </c>
-      <c r="E58" s="100" t="s">
-        <v>389</v>
-      </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="112">
-        <v>0</v>
-      </c>
-      <c r="I58" s="90"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>436</v>
+      <c r="F57" s="17"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="90"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="111" t="s">
+        <v>438</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F58" s="110"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="88"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="66" t="s">
+        <v>437</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="111" t="s">
-        <v>437</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="F59" s="110"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="109">
-        <v>0</v>
-      </c>
-      <c r="I59" s="88"/>
+      <c r="D59" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="91"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>6</v>
@@ -3855,45 +3841,41 @@
       <c r="C60" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="42" t="s">
-        <v>439</v>
-      </c>
-      <c r="E60" s="42" t="s">
-        <v>440</v>
+      <c r="D60" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="17">
-        <v>0</v>
-      </c>
+      <c r="H60" s="17"/>
       <c r="I60" s="91"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="17">
-        <v>0</v>
-      </c>
-      <c r="I61" s="91"/>
+      <c r="D61" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="92"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B62" s="45" t="s">
         <v>138</v>
@@ -3902,21 +3884,19 @@
         <v>139</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>445</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="45"/>
-      <c r="H62" s="16">
-        <v>0</v>
-      </c>
+      <c r="H62" s="18"/>
       <c r="I62" s="92"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>138</v>
@@ -3925,21 +3905,19 @@
         <v>139</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="E63" s="46" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="45"/>
-      <c r="H63" s="18">
-        <v>0</v>
-      </c>
+      <c r="H63" s="18"/>
       <c r="I63" s="92"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B64" s="45" t="s">
         <v>138</v>
@@ -3948,21 +3926,19 @@
         <v>139</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="45"/>
-      <c r="H64" s="18">
-        <v>0</v>
-      </c>
+      <c r="H64" s="18"/>
       <c r="I64" s="92"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B65" s="45" t="s">
         <v>138</v>
@@ -3971,21 +3947,19 @@
         <v>139</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E65" s="46" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="45"/>
-      <c r="H65" s="18">
-        <v>0</v>
-      </c>
+      <c r="H65" s="18"/>
       <c r="I65" s="92"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B66" s="45" t="s">
         <v>138</v>
@@ -3994,21 +3968,19 @@
         <v>139</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E66" s="46" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="45"/>
-      <c r="H66" s="18">
-        <v>0</v>
-      </c>
+      <c r="H66" s="18"/>
       <c r="I66" s="92"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B67" s="45" t="s">
         <v>138</v>
@@ -4017,67 +3989,61 @@
         <v>139</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E67" s="46" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="45"/>
-      <c r="H67" s="18">
-        <v>0</v>
-      </c>
+      <c r="H67" s="18"/>
       <c r="I67" s="92"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="B68" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="45" t="s">
-        <v>451</v>
-      </c>
-      <c r="E68" s="46" t="s">
-        <v>452</v>
+      <c r="D68" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="E68" s="49" t="s">
+        <v>457</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="45"/>
-      <c r="H68" s="18">
-        <v>0</v>
-      </c>
+      <c r="H68" s="18"/>
       <c r="I68" s="92"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="B69" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="E69" s="49" t="s">
-        <v>456</v>
+        <v>437</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="F69" s="18"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="18">
-        <v>0</v>
-      </c>
+      <c r="G69" s="101"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="92"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>9</v>
@@ -4086,21 +4052,19 @@
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="101"/>
-      <c r="H70" s="18">
-        <v>0</v>
-      </c>
+      <c r="H70" s="18"/>
       <c r="I70" s="92"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>9</v>
@@ -4109,253 +4073,210 @@
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="101"/>
-      <c r="H71" s="18">
-        <v>0</v>
-      </c>
+      <c r="H71" s="18"/>
       <c r="I71" s="92"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="108" t="s">
+        <v>437</v>
+      </c>
+      <c r="B72" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="C72" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="104" t="s">
+        <v>391</v>
+      </c>
+      <c r="E72" s="104" t="s">
+        <v>389</v>
+      </c>
+      <c r="F72" s="19"/>
+      <c r="G72" s="100"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="93"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="111" t="s">
+        <v>465</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="92"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="92"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="108" t="s">
+        <v>464</v>
+      </c>
+      <c r="B75" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="100" t="s">
         <v>462</v>
       </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="101"/>
-      <c r="H72" s="18">
-        <v>0</v>
-      </c>
-      <c r="I72" s="92"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="108" t="s">
-        <v>436</v>
-      </c>
-      <c r="B73" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="104" t="s">
-        <v>390</v>
-      </c>
-      <c r="E73" s="104" t="s">
-        <v>388</v>
-      </c>
-      <c r="F73" s="19"/>
-      <c r="G73" s="100"/>
-      <c r="H73" s="19">
-        <v>0</v>
-      </c>
-      <c r="I73" s="93"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="E75" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="F75" s="114"/>
+      <c r="G75" s="113"/>
+      <c r="H75" s="115"/>
+      <c r="I75" s="116"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B76" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F76" s="18"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="92"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D74" s="111" t="s">
-        <v>464</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="18">
-        <v>0</v>
-      </c>
-      <c r="I74" s="92"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="66" t="s">
-        <v>463</v>
-      </c>
-      <c r="B75" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>466</v>
-      </c>
-      <c r="E75" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="F75" s="18"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="18">
-        <v>0</v>
-      </c>
-      <c r="I75" s="92"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="108" t="s">
-        <v>463</v>
-      </c>
-      <c r="B76" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="100" t="s">
-        <v>461</v>
-      </c>
-      <c r="E76" s="100" t="s">
-        <v>462</v>
-      </c>
-      <c r="F76" s="114"/>
-      <c r="G76" s="113"/>
-      <c r="H76" s="115">
-        <v>0</v>
-      </c>
-      <c r="I76" s="116"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="B77" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E77" s="5" t="s">
+      <c r="D77" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="E77" s="45" t="s">
         <v>469</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="45"/>
-      <c r="H77" s="18">
-        <v>0</v>
-      </c>
+      <c r="H77" s="18"/>
       <c r="I77" s="92"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="45" t="s">
+      <c r="A78" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D78" s="45" t="s">
-        <v>470</v>
-      </c>
-      <c r="E78" s="45" t="s">
-        <v>468</v>
-      </c>
-      <c r="F78" s="18"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="18">
-        <v>0</v>
-      </c>
-      <c r="I78" s="92"/>
+      <c r="D78" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="E78" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="91"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="B79" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" s="51" t="s">
+      <c r="B79" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="51" t="s">
-        <v>471</v>
-      </c>
-      <c r="E79" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="16">
-        <v>0</v>
-      </c>
-      <c r="I79" s="91"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="66" t="s">
+      <c r="D79" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" s="61"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="94"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="B80" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80" s="64" t="s">
+      <c r="B80" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D80" s="64" t="s">
-        <v>454</v>
-      </c>
-      <c r="E80" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="F80" s="61"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="61">
-        <v>0</v>
-      </c>
-      <c r="I80" s="94"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="B81" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="E81" s="47" t="s">
+      <c r="D80" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="E80" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="19">
-        <v>0</v>
-      </c>
-      <c r="I81" s="93"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F213" s="32"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="93"/>
+    </row>
+    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F212" s="32"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H111">
+  <conditionalFormatting sqref="H110">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4364,7 +4285,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H132:H133">
+  <conditionalFormatting sqref="H131:H132">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4373,7 +4294,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H134:H205 H88:H123 H129:H131">
+  <conditionalFormatting sqref="H133:H204 H87:H122 H128:H130">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4382,7 +4303,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124:H128">
+  <conditionalFormatting sqref="H123:H127">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4400,7 +4321,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H85">
+  <conditionalFormatting sqref="H60:H84">
     <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4409,7 +4330,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H205">
+  <conditionalFormatting sqref="H2:H204">
     <cfRule type="iconSet" priority="42">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4702,7 +4623,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
       <c r="H11" s="18">
-        <f>Général!H87</f>
+        <f>Général!H86</f>
         <v>0</v>
       </c>
       <c r="I11" s="85"/>
@@ -4726,7 +4647,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="1"/>
       <c r="H12" s="18">
-        <f>Général!H88</f>
+        <f>Général!H87</f>
         <v>0</v>
       </c>
       <c r="I12" s="85"/>
@@ -4750,7 +4671,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="1"/>
       <c r="H13" s="18">
-        <f>Général!H89</f>
+        <f>Général!H88</f>
         <v>0</v>
       </c>
       <c r="I13" s="85"/>
@@ -4774,7 +4695,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="1"/>
       <c r="H14" s="18">
-        <f>Général!H90</f>
+        <f>Général!H89</f>
         <v>0</v>
       </c>
       <c r="I14" s="85"/>
@@ -4798,7 +4719,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="1"/>
       <c r="H15" s="18">
-        <f>Général!H91</f>
+        <f>Général!H90</f>
         <v>0</v>
       </c>
       <c r="I15" s="85"/>
@@ -4822,7 +4743,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="1"/>
       <c r="H16" s="18">
-        <f>Général!H92</f>
+        <f>Général!H91</f>
         <v>0</v>
       </c>
       <c r="I16" s="85"/>
@@ -4846,7 +4767,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="33"/>
       <c r="H17" s="53">
-        <f>Général!H93</f>
+        <f>Général!H92</f>
         <v>0</v>
       </c>
       <c r="I17" s="85"/>
@@ -4870,7 +4791,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="5"/>
       <c r="H18" s="75">
-        <f>Général!H106</f>
+        <f>Général!H105</f>
         <v>0</v>
       </c>
       <c r="I18" s="85"/>
@@ -4894,7 +4815,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="33"/>
       <c r="H19" s="19">
-        <f>Général!H107</f>
+        <f>Général!H106</f>
         <v>0</v>
       </c>
       <c r="I19" s="85"/>
@@ -4918,7 +4839,7 @@
       <c r="F20" s="53"/>
       <c r="G20" s="42"/>
       <c r="H20" s="53">
-        <f>Général!H121</f>
+        <f>Général!H120</f>
         <v>0</v>
       </c>
       <c r="I20" s="85"/>
@@ -4942,7 +4863,7 @@
       <c r="F21" s="50"/>
       <c r="G21" s="7"/>
       <c r="H21" s="75">
-        <f>Général!H140</f>
+        <f>Général!H139</f>
         <v>0</v>
       </c>
       <c r="I21" s="85"/>
@@ -4966,7 +4887,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="1"/>
       <c r="H22" s="16">
-        <f>Général!H141</f>
+        <f>Général!H140</f>
         <v>0</v>
       </c>
       <c r="I22" s="85"/>
@@ -4990,7 +4911,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="1"/>
       <c r="H23" s="53">
-        <f>Général!H142</f>
+        <f>Général!H141</f>
         <v>0</v>
       </c>
       <c r="I23" s="85"/>
@@ -5014,7 +4935,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="1"/>
       <c r="H24" s="16">
-        <f>Général!H143</f>
+        <f>Général!H142</f>
         <v>0</v>
       </c>
       <c r="I24" s="85"/>
@@ -5038,7 +4959,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="1"/>
       <c r="H25" s="18">
-        <f>Général!H144</f>
+        <f>Général!H143</f>
         <v>0</v>
       </c>
       <c r="I25" s="85"/>
@@ -5062,7 +4983,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="1"/>
       <c r="H26" s="16">
-        <f>Général!H146</f>
+        <f>Général!H145</f>
         <v>0</v>
       </c>
       <c r="I26" s="85"/>
@@ -5086,7 +5007,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="1"/>
       <c r="H27" s="16">
-        <f>Général!H154</f>
+        <f>Général!H153</f>
         <v>0</v>
       </c>
       <c r="I27" s="85"/>
@@ -5110,7 +5031,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="1"/>
       <c r="H28" s="16">
-        <f>Général!H161</f>
+        <f>Général!H160</f>
         <v>0</v>
       </c>
       <c r="I28" s="85"/>
@@ -5134,7 +5055,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="1"/>
       <c r="H29" s="16">
-        <f>Général!H169</f>
+        <f>Général!H168</f>
         <v>0</v>
       </c>
       <c r="I29" s="85"/>
@@ -5158,7 +5079,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="1"/>
       <c r="H30" s="16">
-        <f>Général!H172</f>
+        <f>Général!H171</f>
         <v>0</v>
       </c>
       <c r="I30" s="85"/>
@@ -5182,7 +5103,7 @@
       <c r="F31" s="16"/>
       <c r="G31" s="1"/>
       <c r="H31" s="16">
-        <f>Général!H175</f>
+        <f>Général!H174</f>
         <v>0</v>
       </c>
       <c r="I31" s="85"/>
@@ -5206,7 +5127,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="1"/>
       <c r="H32" s="16">
-        <f>Général!H177</f>
+        <f>Général!H176</f>
         <v>0</v>
       </c>
       <c r="I32" s="85"/>
@@ -5230,7 +5151,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="1"/>
       <c r="H33" s="16">
-        <f>Général!H180</f>
+        <f>Général!H179</f>
         <v>0</v>
       </c>
       <c r="I33" s="85"/>
@@ -5254,7 +5175,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="1"/>
       <c r="H34" s="16">
-        <f>Général!H183</f>
+        <f>Général!H182</f>
         <v>0</v>
       </c>
       <c r="I34" s="85"/>
@@ -5278,7 +5199,7 @@
       <c r="F35" s="16"/>
       <c r="G35" s="1"/>
       <c r="H35" s="16">
-        <f>Général!H186</f>
+        <f>Général!H185</f>
         <v>0</v>
       </c>
       <c r="I35" s="85"/>
@@ -5302,7 +5223,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="1"/>
       <c r="H36" s="16">
-        <f>Général!H188</f>
+        <f>Général!H187</f>
         <v>0</v>
       </c>
       <c r="I36" s="85"/>
@@ -5326,7 +5247,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="1"/>
       <c r="H37" s="16">
-        <f>Général!H190</f>
+        <f>Général!H189</f>
         <v>0</v>
       </c>
       <c r="I37" s="85"/>
@@ -5350,7 +5271,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="1"/>
       <c r="H38" s="16">
-        <f>Général!H192</f>
+        <f>Général!H191</f>
         <v>0</v>
       </c>
       <c r="I38" s="85"/>
@@ -5374,7 +5295,7 @@
       <c r="F39" s="16"/>
       <c r="G39" s="1"/>
       <c r="H39" s="16">
-        <f>Général!H196</f>
+        <f>Général!H195</f>
         <v>0</v>
       </c>
       <c r="I39" s="85"/>
@@ -5398,7 +5319,7 @@
       <c r="F40" s="16"/>
       <c r="G40" s="1"/>
       <c r="H40" s="16">
-        <f>Général!H198</f>
+        <f>Général!H197</f>
         <v>0</v>
       </c>
       <c r="I40" s="85"/>
@@ -5422,7 +5343,7 @@
       <c r="F41" s="16"/>
       <c r="G41" s="1"/>
       <c r="H41" s="16">
-        <f>Général!H200</f>
+        <f>Général!H199</f>
         <v>0</v>
       </c>
       <c r="I41" s="85"/>
@@ -5446,7 +5367,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="1"/>
       <c r="H42" s="16">
-        <f>Général!H204</f>
+        <f>Général!H203</f>
         <v>0</v>
       </c>
       <c r="I42" s="85"/>
@@ -5470,7 +5391,7 @@
       <c r="F43" s="16"/>
       <c r="G43" s="1"/>
       <c r="H43" s="16">
-        <f>Général!H205</f>
+        <f>Général!H204</f>
         <v>0</v>
       </c>
       <c r="I43" s="85"/>
@@ -5571,7 +5492,7 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="16">
-        <f>Général!H101</f>
+        <f>Général!H100</f>
         <v>0</v>
       </c>
       <c r="I2" s="16"/>
@@ -5595,7 +5516,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="6"/>
       <c r="H3" s="19">
-        <f>Général!H102</f>
+        <f>Général!H101</f>
         <v>0</v>
       </c>
       <c r="I3" s="19"/>
@@ -5621,7 +5542,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="37">
-        <f>Général!H111</f>
+        <f>Général!H110</f>
         <v>0</v>
       </c>
       <c r="I4" s="19"/>
@@ -5645,7 +5566,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="2"/>
       <c r="H5" s="16">
-        <f>Général!H114</f>
+        <f>Général!H113</f>
         <v>0</v>
       </c>
       <c r="I5" s="16"/>
@@ -5669,7 +5590,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="2"/>
       <c r="H6" s="16">
-        <f>Général!H116</f>
+        <f>Général!H115</f>
         <v>0</v>
       </c>
       <c r="I6" s="16"/>
@@ -5693,7 +5614,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="2"/>
       <c r="H7" s="16">
-        <f>Général!H119</f>
+        <f>Général!H118</f>
         <v>0</v>
       </c>
       <c r="I7" s="16"/>
@@ -5717,7 +5638,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="6"/>
       <c r="H8" s="19">
-        <f>Général!H120</f>
+        <f>Général!H119</f>
         <v>0</v>
       </c>
       <c r="I8" s="19"/>
@@ -5741,7 +5662,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="9"/>
       <c r="H9" s="18">
-        <f>Général!H150</f>
+        <f>Général!H149</f>
         <v>0</v>
       </c>
       <c r="I9" s="18"/>
@@ -5765,7 +5686,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="2"/>
       <c r="H10" s="16">
-        <f>Général!H157</f>
+        <f>Général!H156</f>
         <v>0</v>
       </c>
       <c r="I10" s="16"/>
@@ -5791,7 +5712,7 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="16">
-        <f>Général!H164</f>
+        <f>Général!H163</f>
         <v>0</v>
       </c>
       <c r="I11" s="16"/>
@@ -5815,7 +5736,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="2"/>
       <c r="H12" s="16">
-        <f>Général!H165</f>
+        <f>Général!H164</f>
         <v>0</v>
       </c>
       <c r="I12" s="16"/>
